--- a/Outputs/5. Budget constrained/Grid Search/Output Files/420000/Output_25_6.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/420000/Output_25_6.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3331942.378152015</v>
+        <v>-3332590.73737882</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11517486.19315932</v>
+        <v>11517486.19315933</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>15188833.28797171</v>
+        <v>15188833.28797172</v>
       </c>
     </row>
     <row r="11">
@@ -1376,7 +1376,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>72.40356150710446</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>63.77305697545741</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1421,22 +1421,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>7.105504016099369</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>72.40356150710429</v>
+        <v>56.66755295935818</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>72.40356150710446</v>
       </c>
       <c r="X11" t="n">
-        <v>72.40356150710429</v>
+        <v>72.40356150710446</v>
       </c>
       <c r="Y11" t="n">
-        <v>72.40356150710429</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1503,13 +1503,13 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>11.8069008495699</v>
+        <v>11.80690084957008</v>
       </c>
       <c r="V12" t="n">
-        <v>18.68115031993855</v>
+        <v>18.68115031993872</v>
       </c>
       <c r="W12" t="n">
-        <v>37.57554633143289</v>
+        <v>37.57554633143306</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1576,25 +1576,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>6.556120159855282</v>
+        <v>6.556120159855452</v>
       </c>
       <c r="T13" t="n">
-        <v>13.00701368779518</v>
+        <v>13.00701368779536</v>
       </c>
       <c r="U13" t="n">
-        <v>72.18913543452332</v>
+        <v>72.18913543452349</v>
       </c>
       <c r="V13" t="n">
-        <v>38.01820649434129</v>
+        <v>38.01820649434146</v>
       </c>
       <c r="W13" t="n">
-        <v>72.40356150710429</v>
+        <v>72.40356150710446</v>
       </c>
       <c r="X13" t="n">
-        <v>11.59021855955044</v>
+        <v>11.59021855955061</v>
       </c>
       <c r="Y13" t="n">
-        <v>4.465216522608074</v>
+        <v>4.465216522608245</v>
       </c>
     </row>
     <row r="14">
@@ -1613,16 +1613,16 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>72.40356150710429</v>
+        <v>19.47552824536771</v>
       </c>
       <c r="F14" t="n">
-        <v>72.40356150710429</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>56.66755295935821</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>72.40356150710429</v>
+        <v>72.40356150710446</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1658,16 +1658,16 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>7.105504016099189</v>
+        <v>7.105504016099369</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>37.19202471399047</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>72.40356150710446</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>72.40356150710446</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1740,13 +1740,13 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>11.8069008495699</v>
+        <v>11.80690084957008</v>
       </c>
       <c r="V15" t="n">
-        <v>18.68115031993855</v>
+        <v>18.68115031993872</v>
       </c>
       <c r="W15" t="n">
-        <v>37.57554633143289</v>
+        <v>37.57554633143306</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1813,25 +1813,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>6.556120159855282</v>
+        <v>6.556120159855452</v>
       </c>
       <c r="T16" t="n">
-        <v>13.00701368779518</v>
+        <v>13.00701368779536</v>
       </c>
       <c r="U16" t="n">
-        <v>72.18913543452332</v>
+        <v>72.18913543452349</v>
       </c>
       <c r="V16" t="n">
-        <v>38.01820649434129</v>
+        <v>38.01820649434146</v>
       </c>
       <c r="W16" t="n">
-        <v>72.40356150710429</v>
+        <v>72.40356150710446</v>
       </c>
       <c r="X16" t="n">
-        <v>11.59021855955044</v>
+        <v>11.59021855955061</v>
       </c>
       <c r="Y16" t="n">
-        <v>4.465216522608074</v>
+        <v>4.465216522608245</v>
       </c>
     </row>
     <row r="17">
@@ -1841,22 +1841,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>34.88964134293059</v>
+        <v>34.88964134293047</v>
       </c>
       <c r="C17" t="n">
-        <v>17.42869145045756</v>
+        <v>17.42869145045745</v>
       </c>
       <c r="D17" t="n">
-        <v>6.83884130013297</v>
+        <v>6.838841300132856</v>
       </c>
       <c r="E17" t="n">
-        <v>34.08616975171179</v>
+        <v>34.08616975171168</v>
       </c>
       <c r="F17" t="n">
-        <v>59.03184542116145</v>
+        <v>59.03184542116246</v>
       </c>
       <c r="G17" t="n">
-        <v>67.03114514009152</v>
+        <v>67.03114514009141</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1904,13 +1904,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>1.396768396861673</v>
+        <v>1.39676839686291</v>
       </c>
       <c r="X17" t="n">
-        <v>21.88690035791905</v>
+        <v>21.88690035791893</v>
       </c>
       <c r="Y17" t="n">
-        <v>38.3937383355036</v>
+        <v>38.39373833550349</v>
       </c>
     </row>
     <row r="18">
@@ -2078,22 +2078,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>34.88964134293059</v>
+        <v>34.88964134293047</v>
       </c>
       <c r="C20" t="n">
-        <v>17.42869145045756</v>
+        <v>17.42869145045745</v>
       </c>
       <c r="D20" t="n">
-        <v>6.83884130013297</v>
+        <v>6.838841300132856</v>
       </c>
       <c r="E20" t="n">
-        <v>34.08616975171179</v>
+        <v>34.08616975171168</v>
       </c>
       <c r="F20" t="n">
-        <v>59.03184542116145</v>
+        <v>59.03184542116134</v>
       </c>
       <c r="G20" t="n">
-        <v>67.03114514009155</v>
+        <v>67.03114514009144</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2141,13 +2141,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>1.396768396863024</v>
+        <v>1.39676839686291</v>
       </c>
       <c r="X20" t="n">
-        <v>21.88690035791905</v>
+        <v>21.88690035791932</v>
       </c>
       <c r="Y20" t="n">
-        <v>38.39373833550244</v>
+        <v>38.39373833550349</v>
       </c>
     </row>
     <row r="21">
@@ -2315,22 +2315,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>34.88964134293059</v>
+        <v>34.88964134293047</v>
       </c>
       <c r="C23" t="n">
-        <v>17.42869145045756</v>
+        <v>17.42869145045745</v>
       </c>
       <c r="D23" t="n">
-        <v>6.83884130013297</v>
+        <v>6.838841300132856</v>
       </c>
       <c r="E23" t="n">
-        <v>34.08616975171179</v>
+        <v>34.08616975171168</v>
       </c>
       <c r="F23" t="n">
-        <v>59.03184542116145</v>
+        <v>59.03184542116134</v>
       </c>
       <c r="G23" t="n">
-        <v>67.03114514009155</v>
+        <v>67.03114514009144</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2378,13 +2378,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>1.396768396863024</v>
+        <v>1.39676839686291</v>
       </c>
       <c r="X23" t="n">
-        <v>21.88690035791905</v>
+        <v>21.88690035791893</v>
       </c>
       <c r="Y23" t="n">
-        <v>38.3937383355036</v>
+        <v>38.39373833550349</v>
       </c>
     </row>
     <row r="24">
@@ -2552,16 +2552,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>161.5089008178946</v>
+        <v>161.5089008178947</v>
       </c>
       <c r="C26" t="n">
         <v>144.0479509254216</v>
       </c>
       <c r="D26" t="n">
-        <v>133.458100775097</v>
+        <v>133.4581007750971</v>
       </c>
       <c r="E26" t="n">
-        <v>160.7054292266758</v>
+        <v>160.7054292266759</v>
       </c>
       <c r="F26" t="n">
         <v>185.6511048961255</v>
@@ -2570,7 +2570,7 @@
         <v>193.6504046150556</v>
       </c>
       <c r="H26" t="n">
-        <v>113.8728323920993</v>
+        <v>113.8728323920994</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2609,7 +2609,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>30.08652069789107</v>
+        <v>30.0865206978911</v>
       </c>
       <c r="V26" t="n">
         <v>106.527317624549</v>
@@ -2688,13 +2688,13 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>4.701396833470687</v>
+        <v>4.701396833470715</v>
       </c>
       <c r="V27" t="n">
-        <v>11.57564630383933</v>
+        <v>11.57564630383936</v>
       </c>
       <c r="W27" t="n">
-        <v>30.47004231533367</v>
+        <v>30.4700423153337</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -2764,19 +2764,19 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>5.901509671695966</v>
+        <v>5.901509671695995</v>
       </c>
       <c r="U28" t="n">
-        <v>65.0836314184241</v>
+        <v>65.08363141842413</v>
       </c>
       <c r="V28" t="n">
-        <v>30.91270247824207</v>
+        <v>30.9127024782421</v>
       </c>
       <c r="W28" t="n">
-        <v>65.29805749100507</v>
+        <v>65.2980574910051</v>
       </c>
       <c r="X28" t="n">
-        <v>4.484714543451219</v>
+        <v>4.484714543451247</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2789,16 +2789,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>161.5089008178946</v>
+        <v>161.5089008178947</v>
       </c>
       <c r="C29" t="n">
         <v>144.0479509254216</v>
       </c>
       <c r="D29" t="n">
-        <v>133.458100775097</v>
+        <v>133.4581007750971</v>
       </c>
       <c r="E29" t="n">
-        <v>160.7054292266758</v>
+        <v>160.7054292266759</v>
       </c>
       <c r="F29" t="n">
         <v>185.6511048961255</v>
@@ -2807,7 +2807,7 @@
         <v>193.6504046150556</v>
       </c>
       <c r="H29" t="n">
-        <v>113.8728323920993</v>
+        <v>113.8728323920994</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2846,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>30.08652069789108</v>
+        <v>30.0865206978911</v>
       </c>
       <c r="V29" t="n">
         <v>106.527317624549</v>
@@ -2925,13 +2925,13 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>4.701396833470687</v>
+        <v>4.701396833470715</v>
       </c>
       <c r="V30" t="n">
-        <v>11.57564630383933</v>
+        <v>11.57564630383936</v>
       </c>
       <c r="W30" t="n">
-        <v>30.47004231533367</v>
+        <v>30.4700423153337</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -3001,19 +3001,19 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>5.901509671695966</v>
+        <v>5.901509671695995</v>
       </c>
       <c r="U31" t="n">
-        <v>65.0836314184241</v>
+        <v>65.08363141842413</v>
       </c>
       <c r="V31" t="n">
-        <v>30.91270247824207</v>
+        <v>30.9127024782421</v>
       </c>
       <c r="W31" t="n">
-        <v>65.29805749100507</v>
+        <v>65.2980574910051</v>
       </c>
       <c r="X31" t="n">
-        <v>4.484714543451219</v>
+        <v>4.484714543451247</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3026,25 +3026,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>161.5089008178947</v>
+        <v>161.5089008178946</v>
       </c>
       <c r="C32" t="n">
-        <v>144.0479509254217</v>
+        <v>144.0479509254216</v>
       </c>
       <c r="D32" t="n">
-        <v>133.4581007750971</v>
+        <v>133.458100775097</v>
       </c>
       <c r="E32" t="n">
-        <v>160.7054292266759</v>
+        <v>160.7054292266758</v>
       </c>
       <c r="F32" t="n">
-        <v>185.6511048961256</v>
+        <v>185.6511048961255</v>
       </c>
       <c r="G32" t="n">
-        <v>193.6504046150557</v>
+        <v>193.6504046150556</v>
       </c>
       <c r="H32" t="n">
-        <v>113.8728323920994</v>
+        <v>113.8728323920993</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3083,16 +3083,16 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>30.08652069789116</v>
+        <v>30.08652069789107</v>
       </c>
       <c r="V32" t="n">
-        <v>106.5273176245491</v>
+        <v>106.527317624549</v>
       </c>
       <c r="W32" t="n">
-        <v>128.0160278718272</v>
+        <v>128.0160278718271</v>
       </c>
       <c r="X32" t="n">
-        <v>148.5061598328832</v>
+        <v>148.5061598328831</v>
       </c>
       <c r="Y32" t="n">
         <v>165.0129978104677</v>
@@ -3162,13 +3162,13 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>4.701396833470772</v>
+        <v>4.701396833470687</v>
       </c>
       <c r="V33" t="n">
-        <v>11.57564630383942</v>
+        <v>11.57564630383933</v>
       </c>
       <c r="W33" t="n">
-        <v>30.47004231533376</v>
+        <v>30.47004231533367</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -3238,19 +3238,19 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>5.901509671696052</v>
+        <v>5.901509671695966</v>
       </c>
       <c r="U34" t="n">
-        <v>65.08363141842419</v>
+        <v>65.0836314184241</v>
       </c>
       <c r="V34" t="n">
-        <v>30.91270247824215</v>
+        <v>30.91270247824207</v>
       </c>
       <c r="W34" t="n">
-        <v>65.29805749100515</v>
+        <v>65.29805749100507</v>
       </c>
       <c r="X34" t="n">
-        <v>4.484714543451304</v>
+        <v>4.484714543451219</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>138.0935890264972</v>
+        <v>138.0935890264971</v>
       </c>
       <c r="C35" t="n">
-        <v>120.6326391340242</v>
+        <v>120.6326391340241</v>
       </c>
       <c r="D35" t="n">
-        <v>110.0427889836996</v>
+        <v>110.0427889836995</v>
       </c>
       <c r="E35" t="n">
-        <v>137.2901174352784</v>
+        <v>137.2901174352783</v>
       </c>
       <c r="F35" t="n">
-        <v>162.2357931047281</v>
+        <v>162.2357931047279</v>
       </c>
       <c r="G35" t="n">
-        <v>170.2350928236581</v>
+        <v>170.235092823658</v>
       </c>
       <c r="H35" t="n">
-        <v>90.45752060070188</v>
+        <v>90.45752060070177</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3320,19 +3320,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>6.671208906493636</v>
+        <v>6.671208906493522</v>
       </c>
       <c r="V35" t="n">
-        <v>83.11200583315153</v>
+        <v>83.11200583315141</v>
       </c>
       <c r="W35" t="n">
-        <v>104.6007160804296</v>
+        <v>104.6007160804295</v>
       </c>
       <c r="X35" t="n">
-        <v>125.0908480414857</v>
+        <v>125.0908480414855</v>
       </c>
       <c r="Y35" t="n">
-        <v>141.5976860190702</v>
+        <v>141.5976860190701</v>
       </c>
     </row>
     <row r="36">
@@ -3405,7 +3405,7 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>7.054730523936229</v>
+        <v>7.054730523936115</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -3478,13 +3478,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>41.66831962702666</v>
+        <v>41.66831962702655</v>
       </c>
       <c r="V37" t="n">
-        <v>7.497390686844625</v>
+        <v>7.497390686844511</v>
       </c>
       <c r="W37" t="n">
-        <v>41.88274569960763</v>
+        <v>41.88274569960751</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>138.0935890264972</v>
+        <v>138.0935890264971</v>
       </c>
       <c r="C38" t="n">
-        <v>120.6326391340242</v>
+        <v>120.6326391340241</v>
       </c>
       <c r="D38" t="n">
-        <v>110.0427889836996</v>
+        <v>110.0427889836995</v>
       </c>
       <c r="E38" t="n">
-        <v>137.2901174352784</v>
+        <v>137.2901174352783</v>
       </c>
       <c r="F38" t="n">
-        <v>162.2357931047281</v>
+        <v>162.2357931047279</v>
       </c>
       <c r="G38" t="n">
-        <v>170.2350928236581</v>
+        <v>170.235092823658</v>
       </c>
       <c r="H38" t="n">
-        <v>90.45752060070188</v>
+        <v>90.45752060070177</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3557,19 +3557,19 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>6.671208906493636</v>
+        <v>6.671208906493522</v>
       </c>
       <c r="V38" t="n">
-        <v>83.11200583315153</v>
+        <v>83.11200583315141</v>
       </c>
       <c r="W38" t="n">
-        <v>104.6007160804296</v>
+        <v>104.6007160804295</v>
       </c>
       <c r="X38" t="n">
-        <v>125.0908480414857</v>
+        <v>125.0908480414855</v>
       </c>
       <c r="Y38" t="n">
-        <v>141.5976860190702</v>
+        <v>141.5976860190701</v>
       </c>
     </row>
     <row r="39">
@@ -3642,7 +3642,7 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>7.054730523936229</v>
+        <v>7.054730523936115</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -3715,13 +3715,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>41.66831962702666</v>
+        <v>41.66831962702655</v>
       </c>
       <c r="V40" t="n">
-        <v>7.497390686844625</v>
+        <v>7.497390686844511</v>
       </c>
       <c r="W40" t="n">
-        <v>41.88274569960763</v>
+        <v>41.88274569960751</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>138.0935890264973</v>
+        <v>138.0935890264972</v>
       </c>
       <c r="C41" t="n">
-        <v>120.6326391340243</v>
+        <v>120.6326391340241</v>
       </c>
       <c r="D41" t="n">
-        <v>110.0427889836997</v>
+        <v>110.0427889836996</v>
       </c>
       <c r="E41" t="n">
-        <v>137.2901174352785</v>
+        <v>137.2901174352784</v>
       </c>
       <c r="F41" t="n">
-        <v>162.2357931047281</v>
+        <v>162.235793104728</v>
       </c>
       <c r="G41" t="n">
-        <v>170.2350928236582</v>
+        <v>170.2350928236581</v>
       </c>
       <c r="H41" t="n">
-        <v>90.45752060070197</v>
+        <v>90.45752060070186</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3794,19 +3794,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>6.671208906493717</v>
+        <v>6.671208906493604</v>
       </c>
       <c r="V41" t="n">
-        <v>83.11200583315161</v>
+        <v>83.1120058331515</v>
       </c>
       <c r="W41" t="n">
-        <v>104.6007160804297</v>
+        <v>104.6007160804296</v>
       </c>
       <c r="X41" t="n">
-        <v>125.0908480414857</v>
+        <v>125.0908480414856</v>
       </c>
       <c r="Y41" t="n">
-        <v>141.5976860190703</v>
+        <v>141.5976860190702</v>
       </c>
     </row>
     <row r="42">
@@ -3879,7 +3879,7 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>7.054730523936314</v>
+        <v>7.0547305239362</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -3952,13 +3952,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>41.66831962702675</v>
+        <v>41.66831962702663</v>
       </c>
       <c r="V43" t="n">
-        <v>7.49739068684471</v>
+        <v>7.497390686844597</v>
       </c>
       <c r="W43" t="n">
-        <v>41.88274569960771</v>
+        <v>41.8827456996076</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>138.0935890264973</v>
+        <v>138.0935890264972</v>
       </c>
       <c r="C44" t="n">
-        <v>120.6326391340243</v>
+        <v>120.6326391340241</v>
       </c>
       <c r="D44" t="n">
-        <v>110.0427889836997</v>
+        <v>110.0427889836996</v>
       </c>
       <c r="E44" t="n">
-        <v>137.2901174352785</v>
+        <v>137.2901174352784</v>
       </c>
       <c r="F44" t="n">
-        <v>162.2357931047281</v>
+        <v>162.235793104728</v>
       </c>
       <c r="G44" t="n">
-        <v>170.2350928236582</v>
+        <v>170.2350928236581</v>
       </c>
       <c r="H44" t="n">
-        <v>90.45752060070197</v>
+        <v>90.45752060070186</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4031,19 +4031,19 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>6.671208906493721</v>
+        <v>6.671208906493607</v>
       </c>
       <c r="V44" t="n">
-        <v>83.11200583315161</v>
+        <v>83.1120058331515</v>
       </c>
       <c r="W44" t="n">
-        <v>104.6007160804297</v>
+        <v>104.6007160804296</v>
       </c>
       <c r="X44" t="n">
-        <v>125.0908480414857</v>
+        <v>125.0908480414856</v>
       </c>
       <c r="Y44" t="n">
-        <v>141.5976860190703</v>
+        <v>141.5976860190702</v>
       </c>
     </row>
     <row r="45">
@@ -4116,7 +4116,7 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>7.054730523936314</v>
+        <v>7.0547305239362</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -4189,13 +4189,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>41.66831962702675</v>
+        <v>41.66831962702663</v>
       </c>
       <c r="V46" t="n">
-        <v>7.49739068684471</v>
+        <v>7.497390686844597</v>
       </c>
       <c r="W46" t="n">
-        <v>41.88274569960771</v>
+        <v>41.8827456996076</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>70.20951418870717</v>
+        <v>78.92719553380519</v>
       </c>
       <c r="C11" t="n">
-        <v>70.20951418870717</v>
+        <v>78.92719553380519</v>
       </c>
       <c r="D11" t="n">
-        <v>70.20951418870717</v>
+        <v>78.92719553380519</v>
       </c>
       <c r="E11" t="n">
-        <v>70.20951418870717</v>
+        <v>5.792284920568356</v>
       </c>
       <c r="F11" t="n">
-        <v>70.20951418870717</v>
+        <v>5.792284920568356</v>
       </c>
       <c r="G11" t="n">
-        <v>70.20951418870717</v>
+        <v>5.792284920568356</v>
       </c>
       <c r="H11" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568356</v>
       </c>
       <c r="I11" t="n">
-        <v>6.761440521830096</v>
+        <v>25.71165856611152</v>
       </c>
       <c r="J11" t="n">
-        <v>75.41586022282235</v>
+        <v>25.71165856611152</v>
       </c>
       <c r="K11" t="n">
-        <v>123.3273634807474</v>
+        <v>73.62316182403644</v>
       </c>
       <c r="L11" t="n">
-        <v>168.6680700447453</v>
+        <v>118.9638683880342</v>
       </c>
       <c r="M11" t="n">
-        <v>226.8993836486389</v>
+        <v>118.9638683880342</v>
       </c>
       <c r="N11" t="n">
-        <v>226.8993836486389</v>
+        <v>179.3212043243841</v>
       </c>
       <c r="O11" t="n">
-        <v>226.8993836486389</v>
+        <v>179.3212043243841</v>
       </c>
       <c r="P11" t="n">
-        <v>226.8993836486389</v>
+        <v>223.2236975473348</v>
       </c>
       <c r="Q11" t="n">
-        <v>264.4869915215675</v>
+        <v>260.8113054202631</v>
       </c>
       <c r="R11" t="n">
-        <v>289.6142460284171</v>
+        <v>285.9385599271126</v>
       </c>
       <c r="S11" t="n">
-        <v>289.6142460284171</v>
+        <v>289.6142460284178</v>
       </c>
       <c r="T11" t="n">
-        <v>289.6142460284171</v>
+        <v>282.4369692444791</v>
       </c>
       <c r="U11" t="n">
-        <v>289.6142460284171</v>
+        <v>282.4369692444791</v>
       </c>
       <c r="V11" t="n">
-        <v>216.4793354151805</v>
+        <v>225.1970167602789</v>
       </c>
       <c r="W11" t="n">
-        <v>216.4793354151805</v>
+        <v>152.062106147042</v>
       </c>
       <c r="X11" t="n">
-        <v>143.3444248019438</v>
+        <v>78.92719553380519</v>
       </c>
       <c r="Y11" t="n">
-        <v>70.20951418870717</v>
+        <v>78.92719553380519</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>52.90267556839152</v>
+        <v>14.14465856222872</v>
       </c>
       <c r="C12" t="n">
-        <v>52.90267556839152</v>
+        <v>14.14465856222872</v>
       </c>
       <c r="D12" t="n">
-        <v>52.90267556839152</v>
+        <v>14.14465856222872</v>
       </c>
       <c r="E12" t="n">
-        <v>52.90267556839152</v>
+        <v>14.14465856222872</v>
       </c>
       <c r="F12" t="n">
-        <v>52.90267556839152</v>
+        <v>14.14465856222872</v>
       </c>
       <c r="G12" t="n">
-        <v>74.54339350737779</v>
+        <v>14.14465856222872</v>
       </c>
       <c r="H12" t="n">
-        <v>74.54339350737779</v>
+        <v>14.14465856222872</v>
       </c>
       <c r="I12" t="n">
-        <v>74.54339350737779</v>
+        <v>59.81572930011363</v>
       </c>
       <c r="J12" t="n">
-        <v>74.54339350737779</v>
+        <v>59.81572930011363</v>
       </c>
       <c r="K12" t="n">
-        <v>74.54339350737779</v>
+        <v>59.81572930011363</v>
       </c>
       <c r="L12" t="n">
-        <v>74.54339350737779</v>
+        <v>59.81572930011363</v>
       </c>
       <c r="M12" t="n">
-        <v>74.54339350737779</v>
+        <v>59.81572930011363</v>
       </c>
       <c r="N12" t="n">
-        <v>74.54339350737779</v>
+        <v>59.81572930011363</v>
       </c>
       <c r="O12" t="n">
-        <v>74.54339350737779</v>
+        <v>59.81572930011363</v>
       </c>
       <c r="P12" t="n">
-        <v>74.54339350737779</v>
+        <v>59.81572930011363</v>
       </c>
       <c r="Q12" t="n">
-        <v>74.54339350737779</v>
+        <v>59.81572930011363</v>
       </c>
       <c r="R12" t="n">
-        <v>74.54339350737779</v>
+        <v>59.81572930011363</v>
       </c>
       <c r="S12" t="n">
-        <v>74.54339350737779</v>
+        <v>59.81572930011363</v>
       </c>
       <c r="T12" t="n">
-        <v>74.54339350737779</v>
+        <v>74.54339350737831</v>
       </c>
       <c r="U12" t="n">
-        <v>62.61723103306475</v>
+        <v>62.61723103306511</v>
       </c>
       <c r="V12" t="n">
-        <v>43.74738222504601</v>
+        <v>43.7473822250462</v>
       </c>
       <c r="W12" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568356</v>
       </c>
       <c r="X12" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568356</v>
       </c>
       <c r="Y12" t="n">
-        <v>5.792284920568343</v>
+        <v>14.14465856222872</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>39.73686700164227</v>
+        <v>5.792284920568356</v>
       </c>
       <c r="C13" t="n">
-        <v>39.73686700164227</v>
+        <v>52.19617449411848</v>
       </c>
       <c r="D13" t="n">
-        <v>39.73686700164227</v>
+        <v>52.19617449411848</v>
       </c>
       <c r="E13" t="n">
-        <v>106.7454864427306</v>
+        <v>52.19617449411848</v>
       </c>
       <c r="F13" t="n">
-        <v>174.7568913612205</v>
+        <v>52.19617449411848</v>
       </c>
       <c r="G13" t="n">
-        <v>174.7568913612205</v>
+        <v>98.05314361896333</v>
       </c>
       <c r="H13" t="n">
-        <v>174.7568913612205</v>
+        <v>98.05314361896333</v>
       </c>
       <c r="I13" t="n">
-        <v>226.2260953910511</v>
+        <v>161.8431061200646</v>
       </c>
       <c r="J13" t="n">
-        <v>226.2260953910511</v>
+        <v>161.8431061200646</v>
       </c>
       <c r="K13" t="n">
-        <v>226.2260953910511</v>
+        <v>226.2260953910523</v>
       </c>
       <c r="L13" t="n">
-        <v>226.2260953910511</v>
+        <v>226.2260953910523</v>
       </c>
       <c r="M13" t="n">
-        <v>226.2260953910511</v>
+        <v>226.2260953910523</v>
       </c>
       <c r="N13" t="n">
-        <v>226.2260953910511</v>
+        <v>226.2260953910523</v>
       </c>
       <c r="O13" t="n">
-        <v>226.2260953910511</v>
+        <v>226.2260953910523</v>
       </c>
       <c r="P13" t="n">
-        <v>226.2260953910511</v>
+        <v>226.2260953910523</v>
       </c>
       <c r="Q13" t="n">
-        <v>226.2260953910511</v>
+        <v>226.2260953910523</v>
       </c>
       <c r="R13" t="n">
-        <v>226.2260953910511</v>
+        <v>226.2260953910523</v>
       </c>
       <c r="S13" t="n">
-        <v>219.6037517952377</v>
+        <v>219.6037517952387</v>
       </c>
       <c r="T13" t="n">
-        <v>206.4653541307981</v>
+        <v>206.4653541307989</v>
       </c>
       <c r="U13" t="n">
-        <v>133.5470355100674</v>
+        <v>133.5470355100681</v>
       </c>
       <c r="V13" t="n">
-        <v>95.14480672790451</v>
+        <v>95.14480672790503</v>
       </c>
       <c r="W13" t="n">
-        <v>22.00989611466785</v>
+        <v>22.00989611466821</v>
       </c>
       <c r="X13" t="n">
-        <v>10.30260464037448</v>
+        <v>10.30260464037466</v>
       </c>
       <c r="Y13" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568356</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>282.4369692444786</v>
+        <v>98.59944628670192</v>
       </c>
       <c r="C14" t="n">
-        <v>282.4369692444786</v>
+        <v>98.59944628670192</v>
       </c>
       <c r="D14" t="n">
-        <v>282.4369692444786</v>
+        <v>98.59944628670192</v>
       </c>
       <c r="E14" t="n">
-        <v>209.3020586312419</v>
+        <v>78.92719553380519</v>
       </c>
       <c r="F14" t="n">
-        <v>136.1671480180052</v>
+        <v>78.92719553380519</v>
       </c>
       <c r="G14" t="n">
-        <v>78.927195533805</v>
+        <v>78.92719553380519</v>
       </c>
       <c r="H14" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568356</v>
       </c>
       <c r="I14" t="n">
-        <v>25.71165856611167</v>
+        <v>25.71165856611152</v>
       </c>
       <c r="J14" t="n">
-        <v>94.36607826710392</v>
+        <v>94.3660782671036</v>
       </c>
       <c r="K14" t="n">
-        <v>94.36607826710392</v>
+        <v>142.2775815250285</v>
       </c>
       <c r="L14" t="n">
-        <v>94.36607826710392</v>
+        <v>187.6182880890262</v>
       </c>
       <c r="M14" t="n">
-        <v>151.8518696641262</v>
+        <v>187.6182880890262</v>
       </c>
       <c r="N14" t="n">
-        <v>212.2092056004763</v>
+        <v>247.9756240253761</v>
       </c>
       <c r="O14" t="n">
-        <v>212.2092056004763</v>
+        <v>247.9756240253761</v>
       </c>
       <c r="P14" t="n">
-        <v>212.2092056004763</v>
+        <v>249.7968134734058</v>
       </c>
       <c r="Q14" t="n">
-        <v>249.7968134734048</v>
+        <v>249.7968134734058</v>
       </c>
       <c r="R14" t="n">
-        <v>274.9240679802545</v>
+        <v>274.9240679802554</v>
       </c>
       <c r="S14" t="n">
-        <v>289.6142460284171</v>
+        <v>289.6142460284178</v>
       </c>
       <c r="T14" t="n">
-        <v>282.4369692444786</v>
+        <v>282.4369692444791</v>
       </c>
       <c r="U14" t="n">
-        <v>282.4369692444786</v>
+        <v>244.8692675131756</v>
       </c>
       <c r="V14" t="n">
-        <v>282.4369692444786</v>
+        <v>171.7343568999387</v>
       </c>
       <c r="W14" t="n">
-        <v>282.4369692444786</v>
+        <v>98.59944628670192</v>
       </c>
       <c r="X14" t="n">
-        <v>282.4369692444786</v>
+        <v>98.59944628670192</v>
       </c>
       <c r="Y14" t="n">
-        <v>282.4369692444786</v>
+        <v>98.59944628670192</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>22.40764567197802</v>
+        <v>5.792284920568356</v>
       </c>
       <c r="C15" t="n">
-        <v>22.40764567197802</v>
+        <v>5.792284920568356</v>
       </c>
       <c r="D15" t="n">
-        <v>22.40764567197802</v>
+        <v>5.792284920568356</v>
       </c>
       <c r="E15" t="n">
-        <v>22.40764567197802</v>
+        <v>5.792284920568356</v>
       </c>
       <c r="F15" t="n">
-        <v>22.40764567197802</v>
+        <v>5.792284920568356</v>
       </c>
       <c r="G15" t="n">
-        <v>59.81572930011294</v>
+        <v>5.792284920568356</v>
       </c>
       <c r="H15" t="n">
-        <v>59.81572930011294</v>
+        <v>5.792284920568356</v>
       </c>
       <c r="I15" t="n">
-        <v>59.81572930011294</v>
+        <v>5.792284920568356</v>
       </c>
       <c r="J15" t="n">
-        <v>59.81572930011294</v>
+        <v>5.792284920568356</v>
       </c>
       <c r="K15" t="n">
-        <v>59.81572930011294</v>
+        <v>5.792284920568356</v>
       </c>
       <c r="L15" t="n">
-        <v>59.81572930011294</v>
+        <v>5.792284920568356</v>
       </c>
       <c r="M15" t="n">
-        <v>59.81572930011294</v>
+        <v>5.792284920568356</v>
       </c>
       <c r="N15" t="n">
-        <v>59.81572930011294</v>
+        <v>5.792284920568356</v>
       </c>
       <c r="O15" t="n">
-        <v>59.81572930011294</v>
+        <v>5.792284920568356</v>
       </c>
       <c r="P15" t="n">
-        <v>59.81572930011294</v>
+        <v>74.54339350737831</v>
       </c>
       <c r="Q15" t="n">
-        <v>59.81572930011294</v>
+        <v>74.54339350737831</v>
       </c>
       <c r="R15" t="n">
-        <v>59.81572930011294</v>
+        <v>74.54339350737831</v>
       </c>
       <c r="S15" t="n">
-        <v>59.81572930011294</v>
+        <v>74.54339350737831</v>
       </c>
       <c r="T15" t="n">
-        <v>74.54339350737779</v>
+        <v>74.54339350737831</v>
       </c>
       <c r="U15" t="n">
-        <v>62.61723103306475</v>
+        <v>62.61723103306511</v>
       </c>
       <c r="V15" t="n">
-        <v>43.74738222504601</v>
+        <v>43.7473822250462</v>
       </c>
       <c r="W15" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568356</v>
       </c>
       <c r="X15" t="n">
-        <v>14.05527203031749</v>
+        <v>5.792284920568356</v>
       </c>
       <c r="Y15" t="n">
-        <v>22.40764567197802</v>
+        <v>5.792284920568356</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>5.792284920568343</v>
+        <v>39.73686700164211</v>
       </c>
       <c r="C16" t="n">
-        <v>5.792284920568343</v>
+        <v>86.14075657519223</v>
       </c>
       <c r="D16" t="n">
-        <v>5.792284920568343</v>
+        <v>86.14075657519223</v>
       </c>
       <c r="E16" t="n">
-        <v>5.792284920568343</v>
+        <v>86.14075657519223</v>
       </c>
       <c r="F16" t="n">
-        <v>5.792284920568343</v>
+        <v>86.14075657519223</v>
       </c>
       <c r="G16" t="n">
-        <v>5.792284920568343</v>
+        <v>86.14075657519223</v>
       </c>
       <c r="H16" t="n">
-        <v>58.85308761302911</v>
+        <v>86.14075657519223</v>
       </c>
       <c r="I16" t="n">
-        <v>58.85308761302911</v>
+        <v>86.14075657519223</v>
       </c>
       <c r="J16" t="n">
-        <v>58.85308761302911</v>
+        <v>86.14075657519223</v>
       </c>
       <c r="K16" t="n">
-        <v>58.85308761302911</v>
+        <v>86.14075657519223</v>
       </c>
       <c r="L16" t="n">
-        <v>130.5326135050624</v>
+        <v>86.14075657519223</v>
       </c>
       <c r="M16" t="n">
-        <v>202.2121393970956</v>
+        <v>86.14075657519223</v>
       </c>
       <c r="N16" t="n">
-        <v>226.2260953910511</v>
+        <v>86.14075657519223</v>
       </c>
       <c r="O16" t="n">
-        <v>226.2260953910511</v>
+        <v>86.14075657519223</v>
       </c>
       <c r="P16" t="n">
-        <v>226.2260953910511</v>
+        <v>109.5548558985315</v>
       </c>
       <c r="Q16" t="n">
-        <v>226.2260953910511</v>
+        <v>181.2343817905649</v>
       </c>
       <c r="R16" t="n">
-        <v>226.2260953910511</v>
+        <v>226.2260953910523</v>
       </c>
       <c r="S16" t="n">
-        <v>219.6037517952377</v>
+        <v>219.6037517952387</v>
       </c>
       <c r="T16" t="n">
-        <v>206.4653541307981</v>
+        <v>206.4653541307989</v>
       </c>
       <c r="U16" t="n">
-        <v>133.5470355100674</v>
+        <v>133.5470355100681</v>
       </c>
       <c r="V16" t="n">
-        <v>95.14480672790451</v>
+        <v>95.14480672790503</v>
       </c>
       <c r="W16" t="n">
-        <v>22.00989611466785</v>
+        <v>22.00989611466821</v>
       </c>
       <c r="X16" t="n">
-        <v>10.30260464037448</v>
+        <v>10.30260464037466</v>
       </c>
       <c r="Y16" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568356</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>192.0717728635541</v>
+        <v>192.0717728635535</v>
       </c>
       <c r="C17" t="n">
-        <v>174.467034024708</v>
+        <v>174.4670340247077</v>
       </c>
       <c r="D17" t="n">
-        <v>167.5591135195232</v>
+        <v>167.559113519523</v>
       </c>
       <c r="E17" t="n">
-        <v>133.1286390228446</v>
+        <v>133.1286390228445</v>
       </c>
       <c r="F17" t="n">
-        <v>73.50051233480221</v>
+        <v>73.5005123348021</v>
       </c>
       <c r="G17" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568356</v>
       </c>
       <c r="H17" t="n">
-        <v>18.41124773260443</v>
+        <v>18.41124773260456</v>
       </c>
       <c r="I17" t="n">
-        <v>90.09077362463768</v>
+        <v>18.41124773260456</v>
       </c>
       <c r="J17" t="n">
-        <v>90.09077362463768</v>
+        <v>90.09077362463796</v>
       </c>
       <c r="K17" t="n">
-        <v>90.09077362463768</v>
+        <v>90.09077362463796</v>
       </c>
       <c r="L17" t="n">
-        <v>90.09077362463768</v>
+        <v>126.36417181244</v>
       </c>
       <c r="M17" t="n">
-        <v>90.09077362463768</v>
+        <v>126.36417181244</v>
       </c>
       <c r="N17" t="n">
-        <v>90.09077362463768</v>
+        <v>126.36417181244</v>
       </c>
       <c r="O17" t="n">
-        <v>90.09077362463768</v>
+        <v>126.36417181244</v>
       </c>
       <c r="P17" t="n">
-        <v>90.09077362463768</v>
+        <v>126.36417181244</v>
       </c>
       <c r="Q17" t="n">
-        <v>90.09077362463768</v>
+        <v>126.36417181244</v>
       </c>
       <c r="R17" t="n">
-        <v>90.09077362463768</v>
+        <v>126.36417181244</v>
       </c>
       <c r="S17" t="n">
-        <v>146.2551942443507</v>
+        <v>126.36417181244</v>
       </c>
       <c r="T17" t="n">
-        <v>217.9347201363839</v>
+        <v>198.0436977044734</v>
       </c>
       <c r="U17" t="n">
-        <v>289.6142460284171</v>
+        <v>269.7232235965068</v>
       </c>
       <c r="V17" t="n">
-        <v>289.6142460284171</v>
+        <v>289.6142460284178</v>
       </c>
       <c r="W17" t="n">
-        <v>288.2033688598705</v>
+        <v>288.2033688598696</v>
       </c>
       <c r="X17" t="n">
-        <v>266.0953887003563</v>
+        <v>266.0953887003555</v>
       </c>
       <c r="Y17" t="n">
-        <v>227.3138348261102</v>
+        <v>227.3138348261095</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568356</v>
       </c>
       <c r="C18" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568356</v>
       </c>
       <c r="D18" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568356</v>
       </c>
       <c r="E18" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568356</v>
       </c>
       <c r="F18" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568356</v>
       </c>
       <c r="G18" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568356</v>
       </c>
       <c r="H18" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568356</v>
       </c>
       <c r="I18" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568356</v>
       </c>
       <c r="J18" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568356</v>
       </c>
       <c r="K18" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568356</v>
       </c>
       <c r="L18" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568356</v>
       </c>
       <c r="M18" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568356</v>
       </c>
       <c r="N18" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568356</v>
       </c>
       <c r="O18" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568356</v>
       </c>
       <c r="P18" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568356</v>
       </c>
       <c r="Q18" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568356</v>
       </c>
       <c r="R18" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568356</v>
       </c>
       <c r="S18" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568356</v>
       </c>
       <c r="T18" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568356</v>
       </c>
       <c r="U18" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568356</v>
       </c>
       <c r="V18" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568356</v>
       </c>
       <c r="W18" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568356</v>
       </c>
       <c r="X18" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568356</v>
       </c>
       <c r="Y18" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568356</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568356</v>
       </c>
       <c r="C19" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568356</v>
       </c>
       <c r="D19" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568356</v>
       </c>
       <c r="E19" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568356</v>
       </c>
       <c r="F19" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568356</v>
       </c>
       <c r="G19" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568356</v>
       </c>
       <c r="H19" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568356</v>
       </c>
       <c r="I19" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568356</v>
       </c>
       <c r="J19" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568356</v>
       </c>
       <c r="K19" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568356</v>
       </c>
       <c r="L19" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568356</v>
       </c>
       <c r="M19" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568356</v>
       </c>
       <c r="N19" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568356</v>
       </c>
       <c r="O19" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568356</v>
       </c>
       <c r="P19" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568356</v>
       </c>
       <c r="Q19" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568356</v>
       </c>
       <c r="R19" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568356</v>
       </c>
       <c r="S19" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568356</v>
       </c>
       <c r="T19" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568356</v>
       </c>
       <c r="U19" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568356</v>
       </c>
       <c r="V19" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568356</v>
       </c>
       <c r="W19" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568356</v>
       </c>
       <c r="X19" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568356</v>
       </c>
       <c r="Y19" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568356</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>192.0717728635536</v>
+        <v>192.0717728635533</v>
       </c>
       <c r="C20" t="n">
-        <v>174.4670340247076</v>
+        <v>174.4670340247073</v>
       </c>
       <c r="D20" t="n">
-        <v>167.5591135195227</v>
+        <v>167.5591135195226</v>
       </c>
       <c r="E20" t="n">
         <v>133.1286390228441</v>
       </c>
       <c r="F20" t="n">
-        <v>73.50051233480225</v>
+        <v>73.50051233480212</v>
       </c>
       <c r="G20" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568356</v>
       </c>
       <c r="H20" t="n">
-        <v>18.41124773260443</v>
+        <v>18.41124773260456</v>
       </c>
       <c r="I20" t="n">
-        <v>18.41124773260443</v>
+        <v>54.68464592040655</v>
       </c>
       <c r="J20" t="n">
-        <v>18.41124773260443</v>
+        <v>54.68464592040655</v>
       </c>
       <c r="K20" t="n">
-        <v>18.41124773260443</v>
+        <v>54.68464592040655</v>
       </c>
       <c r="L20" t="n">
-        <v>18.41124773260443</v>
+        <v>54.68464592040655</v>
       </c>
       <c r="M20" t="n">
-        <v>18.41124773260443</v>
+        <v>54.68464592040655</v>
       </c>
       <c r="N20" t="n">
-        <v>18.41124773260443</v>
+        <v>54.68464592040655</v>
       </c>
       <c r="O20" t="n">
-        <v>18.41124773260443</v>
+        <v>54.68464592040655</v>
       </c>
       <c r="P20" t="n">
-        <v>18.41124773260443</v>
+        <v>54.68464592040655</v>
       </c>
       <c r="Q20" t="n">
-        <v>74.57566835231742</v>
+        <v>54.68464592040655</v>
       </c>
       <c r="R20" t="n">
-        <v>74.57566835231742</v>
+        <v>54.68464592040655</v>
       </c>
       <c r="S20" t="n">
-        <v>146.2551942443507</v>
+        <v>126.36417181244</v>
       </c>
       <c r="T20" t="n">
-        <v>217.9347201363839</v>
+        <v>198.0436977044734</v>
       </c>
       <c r="U20" t="n">
-        <v>289.6142460284171</v>
+        <v>269.7232235965068</v>
       </c>
       <c r="V20" t="n">
-        <v>289.6142460284171</v>
+        <v>289.6142460284178</v>
       </c>
       <c r="W20" t="n">
-        <v>288.2033688598686</v>
+        <v>288.2033688598694</v>
       </c>
       <c r="X20" t="n">
-        <v>266.0953887003546</v>
+        <v>266.0953887003552</v>
       </c>
       <c r="Y20" t="n">
-        <v>227.3138348261098</v>
+        <v>227.3138348261093</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568356</v>
       </c>
       <c r="C21" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568356</v>
       </c>
       <c r="D21" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568356</v>
       </c>
       <c r="E21" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568356</v>
       </c>
       <c r="F21" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568356</v>
       </c>
       <c r="G21" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568356</v>
       </c>
       <c r="H21" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568356</v>
       </c>
       <c r="I21" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568356</v>
       </c>
       <c r="J21" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568356</v>
       </c>
       <c r="K21" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568356</v>
       </c>
       <c r="L21" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568356</v>
       </c>
       <c r="M21" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568356</v>
       </c>
       <c r="N21" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568356</v>
       </c>
       <c r="O21" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568356</v>
       </c>
       <c r="P21" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568356</v>
       </c>
       <c r="Q21" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568356</v>
       </c>
       <c r="R21" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568356</v>
       </c>
       <c r="S21" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568356</v>
       </c>
       <c r="T21" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568356</v>
       </c>
       <c r="U21" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568356</v>
       </c>
       <c r="V21" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568356</v>
       </c>
       <c r="W21" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568356</v>
       </c>
       <c r="X21" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568356</v>
       </c>
       <c r="Y21" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568356</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568356</v>
       </c>
       <c r="C22" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568356</v>
       </c>
       <c r="D22" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568356</v>
       </c>
       <c r="E22" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568356</v>
       </c>
       <c r="F22" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568356</v>
       </c>
       <c r="G22" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568356</v>
       </c>
       <c r="H22" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568356</v>
       </c>
       <c r="I22" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568356</v>
       </c>
       <c r="J22" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568356</v>
       </c>
       <c r="K22" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568356</v>
       </c>
       <c r="L22" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568356</v>
       </c>
       <c r="M22" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568356</v>
       </c>
       <c r="N22" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568356</v>
       </c>
       <c r="O22" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568356</v>
       </c>
       <c r="P22" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568356</v>
       </c>
       <c r="Q22" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568356</v>
       </c>
       <c r="R22" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568356</v>
       </c>
       <c r="S22" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568356</v>
       </c>
       <c r="T22" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568356</v>
       </c>
       <c r="U22" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568356</v>
       </c>
       <c r="V22" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568356</v>
       </c>
       <c r="W22" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568356</v>
       </c>
       <c r="X22" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568356</v>
       </c>
       <c r="Y22" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568356</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>192.0717728635523</v>
+        <v>192.0717728635535</v>
       </c>
       <c r="C23" t="n">
-        <v>174.4670340247063</v>
+        <v>174.4670340247075</v>
       </c>
       <c r="D23" t="n">
-        <v>167.5591135195217</v>
+        <v>167.5591135195228</v>
       </c>
       <c r="E23" t="n">
-        <v>133.1286390228437</v>
+        <v>133.1286390228443</v>
       </c>
       <c r="F23" t="n">
-        <v>73.50051233480225</v>
+        <v>73.50051233480212</v>
       </c>
       <c r="G23" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568356</v>
       </c>
       <c r="H23" t="n">
-        <v>18.41124773260443</v>
+        <v>5.792284920568356</v>
       </c>
       <c r="I23" t="n">
-        <v>90.09077362463768</v>
+        <v>5.792284920568356</v>
       </c>
       <c r="J23" t="n">
-        <v>161.7702995166709</v>
+        <v>5.792284920568356</v>
       </c>
       <c r="K23" t="n">
-        <v>161.7702995166709</v>
+        <v>5.792284920568356</v>
       </c>
       <c r="L23" t="n">
-        <v>161.7702995166709</v>
+        <v>5.792284920568356</v>
       </c>
       <c r="M23" t="n">
-        <v>161.7702995166709</v>
+        <v>77.47181081260177</v>
       </c>
       <c r="N23" t="n">
-        <v>161.7702995166709</v>
+        <v>149.1513367046352</v>
       </c>
       <c r="O23" t="n">
-        <v>161.7702995166709</v>
+        <v>220.8308625966686</v>
       </c>
       <c r="P23" t="n">
-        <v>161.7702995166709</v>
+        <v>289.6142460284178</v>
       </c>
       <c r="Q23" t="n">
-        <v>161.7702995166709</v>
+        <v>289.6142460284178</v>
       </c>
       <c r="R23" t="n">
-        <v>217.9347201363839</v>
+        <v>289.6142460284178</v>
       </c>
       <c r="S23" t="n">
-        <v>217.9347201363839</v>
+        <v>289.6142460284178</v>
       </c>
       <c r="T23" t="n">
-        <v>217.9347201363839</v>
+        <v>289.6142460284178</v>
       </c>
       <c r="U23" t="n">
-        <v>289.6142460284171</v>
+        <v>289.6142460284178</v>
       </c>
       <c r="V23" t="n">
-        <v>289.6142460284171</v>
+        <v>289.6142460284178</v>
       </c>
       <c r="W23" t="n">
-        <v>288.2033688598686</v>
+        <v>288.2033688598694</v>
       </c>
       <c r="X23" t="n">
-        <v>266.0953887003544</v>
+        <v>266.0953887003553</v>
       </c>
       <c r="Y23" t="n">
-        <v>227.3138348261084</v>
+        <v>227.3138348261094</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568356</v>
       </c>
       <c r="C24" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568356</v>
       </c>
       <c r="D24" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568356</v>
       </c>
       <c r="E24" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568356</v>
       </c>
       <c r="F24" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568356</v>
       </c>
       <c r="G24" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568356</v>
       </c>
       <c r="H24" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568356</v>
       </c>
       <c r="I24" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568356</v>
       </c>
       <c r="J24" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568356</v>
       </c>
       <c r="K24" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568356</v>
       </c>
       <c r="L24" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568356</v>
       </c>
       <c r="M24" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568356</v>
       </c>
       <c r="N24" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568356</v>
       </c>
       <c r="O24" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568356</v>
       </c>
       <c r="P24" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568356</v>
       </c>
       <c r="Q24" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568356</v>
       </c>
       <c r="R24" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568356</v>
       </c>
       <c r="S24" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568356</v>
       </c>
       <c r="T24" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568356</v>
       </c>
       <c r="U24" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568356</v>
       </c>
       <c r="V24" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568356</v>
       </c>
       <c r="W24" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568356</v>
       </c>
       <c r="X24" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568356</v>
       </c>
       <c r="Y24" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568356</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568356</v>
       </c>
       <c r="C25" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568356</v>
       </c>
       <c r="D25" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568356</v>
       </c>
       <c r="E25" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568356</v>
       </c>
       <c r="F25" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568356</v>
       </c>
       <c r="G25" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568356</v>
       </c>
       <c r="H25" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568356</v>
       </c>
       <c r="I25" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568356</v>
       </c>
       <c r="J25" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568356</v>
       </c>
       <c r="K25" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568356</v>
       </c>
       <c r="L25" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568356</v>
       </c>
       <c r="M25" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568356</v>
       </c>
       <c r="N25" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568356</v>
       </c>
       <c r="O25" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568356</v>
       </c>
       <c r="P25" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568356</v>
       </c>
       <c r="Q25" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568356</v>
       </c>
       <c r="R25" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568356</v>
       </c>
       <c r="S25" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568356</v>
       </c>
       <c r="T25" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568356</v>
       </c>
       <c r="U25" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568356</v>
       </c>
       <c r="V25" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568356</v>
       </c>
       <c r="W25" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568356</v>
       </c>
       <c r="X25" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568356</v>
       </c>
       <c r="Y25" t="n">
-        <v>5.792284920568343</v>
+        <v>5.792284920568356</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>975.2411681339777</v>
+        <v>975.2411681339775</v>
       </c>
       <c r="C26" t="n">
         <v>829.7381874012286</v>
@@ -6221,40 +6221,40 @@
         <v>34.44740769915455</v>
       </c>
       <c r="I26" t="n">
-        <v>61.4012303206361</v>
+        <v>61.40123032063607</v>
       </c>
       <c r="J26" t="n">
-        <v>137.0900989975666</v>
+        <v>304.4957480179195</v>
       </c>
       <c r="K26" t="n">
-        <v>192.0360512314299</v>
+        <v>461.3329672601059</v>
       </c>
       <c r="L26" t="n">
-        <v>438.8831177391819</v>
+        <v>513.7081228000419</v>
       </c>
       <c r="M26" t="n">
-        <v>740.2286802986034</v>
+        <v>927.8537016653181</v>
       </c>
       <c r="N26" t="n">
-        <v>807.6204652108918</v>
+        <v>995.2454865776064</v>
       </c>
       <c r="O26" t="n">
-        <v>1233.907135487929</v>
+        <v>1198.105929322888</v>
       </c>
       <c r="P26" t="n">
-        <v>1603.424798776586</v>
+        <v>1567.623592611544</v>
       </c>
       <c r="Q26" t="n">
-        <v>1603.424798776586</v>
+        <v>1603.424798776587</v>
       </c>
       <c r="R26" t="n">
         <v>1700.645757933627</v>
       </c>
       <c r="S26" t="n">
-        <v>1722.370384957727</v>
+        <v>1722.370384957728</v>
       </c>
       <c r="T26" t="n">
-        <v>1722.370384957727</v>
+        <v>1722.370384957728</v>
       </c>
       <c r="U26" t="n">
         <v>1691.979960010363</v>
@@ -6294,52 +6294,52 @@
         <v>34.44740769915455</v>
       </c>
       <c r="G27" t="n">
-        <v>81.66668593414818</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="H27" t="n">
-        <v>81.66668593414818</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="I27" t="n">
-        <v>81.66668593414818</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="J27" t="n">
-        <v>81.66668593414818</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="K27" t="n">
-        <v>81.66668593414818</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="L27" t="n">
-        <v>81.66668593414818</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="M27" t="n">
-        <v>81.66668593414818</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="N27" t="n">
-        <v>81.66668593414818</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="O27" t="n">
-        <v>81.66668593414818</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="P27" t="n">
-        <v>81.66668593414818</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="Q27" t="n">
-        <v>81.66668593414818</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="R27" t="n">
-        <v>81.66668593414818</v>
+        <v>81.66668593414828</v>
       </c>
       <c r="S27" t="n">
-        <v>81.66668593414818</v>
+        <v>81.66668593414828</v>
       </c>
       <c r="T27" t="n">
-        <v>81.66668593414818</v>
+        <v>81.66668593414828</v>
       </c>
       <c r="U27" t="n">
-        <v>76.91780024377374</v>
+        <v>76.91780024377381</v>
       </c>
       <c r="V27" t="n">
-        <v>65.22522821969361</v>
+        <v>65.22522821969365</v>
       </c>
       <c r="W27" t="n">
         <v>34.44740769915455</v>
@@ -6382,46 +6382,46 @@
         <v>34.44740769915455</v>
       </c>
       <c r="J28" t="n">
-        <v>34.44740769915455</v>
+        <v>94.52173417166512</v>
       </c>
       <c r="K28" t="n">
-        <v>34.44740769915455</v>
+        <v>207.8621709343248</v>
       </c>
       <c r="L28" t="n">
-        <v>148.141792539098</v>
+        <v>207.8621709343248</v>
       </c>
       <c r="M28" t="n">
-        <v>148.141792539098</v>
+        <v>207.8621709343248</v>
       </c>
       <c r="N28" t="n">
-        <v>207.8621709343247</v>
+        <v>207.8621709343248</v>
       </c>
       <c r="O28" t="n">
-        <v>207.8621709343247</v>
+        <v>207.8621709343248</v>
       </c>
       <c r="P28" t="n">
-        <v>207.8621709343247</v>
+        <v>207.8621709343248</v>
       </c>
       <c r="Q28" t="n">
-        <v>207.8621709343247</v>
+        <v>207.8621709343248</v>
       </c>
       <c r="R28" t="n">
-        <v>207.8621709343247</v>
+        <v>207.8621709343248</v>
       </c>
       <c r="S28" t="n">
-        <v>207.8621709343247</v>
+        <v>207.8621709343248</v>
       </c>
       <c r="T28" t="n">
-        <v>201.9010500538237</v>
+        <v>201.9010500538238</v>
       </c>
       <c r="U28" t="n">
-        <v>136.1600082170317</v>
+        <v>136.1600082170318</v>
       </c>
       <c r="V28" t="n">
         <v>104.9350562188074</v>
       </c>
       <c r="W28" t="n">
-        <v>38.97742238950931</v>
+        <v>38.97742238950935</v>
       </c>
       <c r="X28" t="n">
         <v>34.44740769915455</v>
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>975.2411681339787</v>
+        <v>975.2411681339772</v>
       </c>
       <c r="C29" t="n">
-        <v>829.7381874012297</v>
+        <v>829.7381874012281</v>
       </c>
       <c r="D29" t="n">
-        <v>694.9320250021417</v>
+        <v>694.9320250021401</v>
       </c>
       <c r="E29" t="n">
-        <v>532.60330861156</v>
+        <v>532.6033086115585</v>
       </c>
       <c r="F29" t="n">
-        <v>345.0769400296151</v>
+        <v>345.0769400296135</v>
       </c>
       <c r="G29" t="n">
         <v>149.4704707214771</v>
       </c>
       <c r="H29" t="n">
-        <v>34.44740769915457</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="I29" t="n">
-        <v>61.40123032063613</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="J29" t="n">
-        <v>137.0900989975666</v>
+        <v>110.136276376085</v>
       </c>
       <c r="K29" t="n">
-        <v>192.0360512314299</v>
+        <v>165.0822286099483</v>
       </c>
       <c r="L29" t="n">
-        <v>485.5127660083383</v>
+        <v>411.9292951177002</v>
       </c>
       <c r="M29" t="n">
-        <v>911.7994362853761</v>
+        <v>477.195057697532</v>
       </c>
       <c r="N29" t="n">
-        <v>1235.167851354534</v>
+        <v>903.4817279745696</v>
       </c>
       <c r="O29" t="n">
-        <v>1297.673958975526</v>
+        <v>1312.601424283916</v>
       </c>
       <c r="P29" t="n">
-        <v>1348.610901174415</v>
+        <v>1580.527368951821</v>
       </c>
       <c r="Q29" t="n">
-        <v>1603.424798776588</v>
+        <v>1625.149425800687</v>
       </c>
       <c r="R29" t="n">
-        <v>1700.645757933628</v>
+        <v>1722.370384957728</v>
       </c>
       <c r="S29" t="n">
-        <v>1722.370384957729</v>
+        <v>1722.370384957728</v>
       </c>
       <c r="T29" t="n">
-        <v>1722.370384957729</v>
+        <v>1722.370384957728</v>
       </c>
       <c r="U29" t="n">
-        <v>1691.979960010364</v>
+        <v>1691.979960010363</v>
       </c>
       <c r="V29" t="n">
-        <v>1584.376608874456</v>
+        <v>1584.376608874455</v>
       </c>
       <c r="W29" t="n">
-        <v>1455.067489812004</v>
+        <v>1455.067489812003</v>
       </c>
       <c r="X29" t="n">
-        <v>1305.061267758587</v>
+        <v>1305.061267758586</v>
       </c>
       <c r="Y29" t="n">
-        <v>1138.381471990438</v>
+        <v>1138.381471990436</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>34.44740769915457</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="C30" t="n">
-        <v>34.44740769915457</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="D30" t="n">
-        <v>34.44740769915457</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="E30" t="n">
-        <v>34.44740769915457</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="F30" t="n">
-        <v>34.44740769915457</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="G30" t="n">
-        <v>34.44740769915457</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="H30" t="n">
-        <v>34.44740769915457</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="I30" t="n">
-        <v>34.44740769915457</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="J30" t="n">
-        <v>34.44740769915457</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="K30" t="n">
-        <v>34.44740769915457</v>
+        <v>81.66668593414828</v>
       </c>
       <c r="L30" t="n">
-        <v>34.44740769915457</v>
+        <v>81.66668593414828</v>
       </c>
       <c r="M30" t="n">
-        <v>81.66668593414821</v>
+        <v>81.66668593414828</v>
       </c>
       <c r="N30" t="n">
-        <v>81.66668593414821</v>
+        <v>81.66668593414828</v>
       </c>
       <c r="O30" t="n">
-        <v>81.66668593414821</v>
+        <v>81.66668593414828</v>
       </c>
       <c r="P30" t="n">
-        <v>81.66668593414821</v>
+        <v>81.66668593414828</v>
       </c>
       <c r="Q30" t="n">
-        <v>81.66668593414821</v>
+        <v>81.66668593414828</v>
       </c>
       <c r="R30" t="n">
-        <v>81.66668593414821</v>
+        <v>81.66668593414828</v>
       </c>
       <c r="S30" t="n">
-        <v>81.66668593414821</v>
+        <v>81.66668593414828</v>
       </c>
       <c r="T30" t="n">
-        <v>81.66668593414821</v>
+        <v>81.66668593414828</v>
       </c>
       <c r="U30" t="n">
-        <v>76.91780024377377</v>
+        <v>76.91780024377381</v>
       </c>
       <c r="V30" t="n">
-        <v>65.22522821969363</v>
+        <v>65.22522821969365</v>
       </c>
       <c r="W30" t="n">
-        <v>34.44740769915457</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="X30" t="n">
-        <v>34.44740769915457</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="Y30" t="n">
-        <v>34.44740769915457</v>
+        <v>34.44740769915455</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>37.06129231771081</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="C31" t="n">
-        <v>37.06129231771081</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="D31" t="n">
-        <v>37.06129231771081</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="E31" t="n">
-        <v>37.06129231771081</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="F31" t="n">
-        <v>37.06129231771081</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="G31" t="n">
-        <v>89.95271041849406</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="H31" t="n">
-        <v>150.0479620868931</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="I31" t="n">
-        <v>155.8360083578989</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="J31" t="n">
-        <v>155.8360083578989</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="K31" t="n">
-        <v>155.8360083578989</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="L31" t="n">
-        <v>155.8360083578989</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="M31" t="n">
-        <v>155.8360083578989</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="N31" t="n">
-        <v>155.8360083578989</v>
+        <v>156.0954093411667</v>
       </c>
       <c r="O31" t="n">
-        <v>155.8360083578989</v>
+        <v>207.8621709343248</v>
       </c>
       <c r="P31" t="n">
-        <v>155.8360083578989</v>
+        <v>207.8621709343248</v>
       </c>
       <c r="Q31" t="n">
-        <v>155.8360083578989</v>
+        <v>207.8621709343248</v>
       </c>
       <c r="R31" t="n">
-        <v>207.8621709343247</v>
+        <v>207.8621709343248</v>
       </c>
       <c r="S31" t="n">
-        <v>207.8621709343247</v>
+        <v>207.8621709343248</v>
       </c>
       <c r="T31" t="n">
-        <v>201.9010500538237</v>
+        <v>201.9010500538238</v>
       </c>
       <c r="U31" t="n">
-        <v>136.1600082170317</v>
+        <v>136.1600082170318</v>
       </c>
       <c r="V31" t="n">
         <v>104.9350562188074</v>
       </c>
       <c r="W31" t="n">
-        <v>38.97742238950934</v>
+        <v>38.97742238950935</v>
       </c>
       <c r="X31" t="n">
-        <v>34.44740769915457</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="Y31" t="n">
-        <v>37.06129231771081</v>
+        <v>34.44740769915455</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>975.2411681339784</v>
+        <v>975.2411681339775</v>
       </c>
       <c r="C32" t="n">
-        <v>829.7381874012292</v>
+        <v>829.7381874012284</v>
       </c>
       <c r="D32" t="n">
-        <v>694.9320250021412</v>
+        <v>694.9320250021406</v>
       </c>
       <c r="E32" t="n">
-        <v>532.6033086115594</v>
+        <v>532.603308611559</v>
       </c>
       <c r="F32" t="n">
-        <v>345.0769400296144</v>
+        <v>345.076940029614</v>
       </c>
       <c r="G32" t="n">
-        <v>149.4704707214772</v>
+        <v>149.4704707214771</v>
       </c>
       <c r="H32" t="n">
-        <v>34.44740769915457</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="I32" t="n">
-        <v>61.40123032063605</v>
+        <v>61.4012303206361</v>
       </c>
       <c r="J32" t="n">
-        <v>137.0900989975664</v>
+        <v>304.4957480179196</v>
       </c>
       <c r="K32" t="n">
-        <v>512.9400096768827</v>
+        <v>461.332967260106</v>
       </c>
       <c r="L32" t="n">
-        <v>863.2870820063526</v>
+        <v>513.7081228000421</v>
       </c>
       <c r="M32" t="n">
-        <v>1289.573752283391</v>
+        <v>578.973885379874</v>
       </c>
       <c r="N32" t="n">
-        <v>1356.965537195679</v>
+        <v>979.0932378857574</v>
       </c>
       <c r="O32" t="n">
-        <v>1356.965537195679</v>
+        <v>979.0932378857574</v>
       </c>
       <c r="P32" t="n">
-        <v>1413.670156848668</v>
+        <v>1348.610901174414</v>
       </c>
       <c r="Q32" t="n">
-        <v>1668.48405445084</v>
+        <v>1603.424798776587</v>
       </c>
       <c r="R32" t="n">
-        <v>1700.645757933628</v>
+        <v>1700.645757933627</v>
       </c>
       <c r="S32" t="n">
-        <v>1722.370384957729</v>
+        <v>1722.370384957728</v>
       </c>
       <c r="T32" t="n">
-        <v>1722.370384957729</v>
+        <v>1722.370384957728</v>
       </c>
       <c r="U32" t="n">
-        <v>1691.979960010364</v>
+        <v>1691.979960010363</v>
       </c>
       <c r="V32" t="n">
-        <v>1584.376608874456</v>
+        <v>1584.376608874455</v>
       </c>
       <c r="W32" t="n">
-        <v>1455.067489812004</v>
+        <v>1455.067489812003</v>
       </c>
       <c r="X32" t="n">
-        <v>1305.061267758587</v>
+        <v>1305.061267758586</v>
       </c>
       <c r="Y32" t="n">
-        <v>1138.381471990438</v>
+        <v>1138.381471990437</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>34.44740769915457</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="C33" t="n">
-        <v>34.44740769915457</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="D33" t="n">
-        <v>34.44740769915457</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="E33" t="n">
-        <v>34.44740769915457</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="F33" t="n">
-        <v>34.44740769915457</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="G33" t="n">
-        <v>34.44740769915457</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="H33" t="n">
-        <v>34.44740769915457</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="I33" t="n">
-        <v>34.44740769915457</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="J33" t="n">
-        <v>34.44740769915457</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="K33" t="n">
-        <v>34.44740769915457</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="L33" t="n">
-        <v>34.44740769915457</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="M33" t="n">
-        <v>34.44740769915457</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="N33" t="n">
-        <v>34.44740769915457</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="O33" t="n">
-        <v>34.44740769915457</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="P33" t="n">
-        <v>34.44740769915457</v>
+        <v>81.66668593414819</v>
       </c>
       <c r="Q33" t="n">
-        <v>34.44740769915457</v>
+        <v>81.66668593414819</v>
       </c>
       <c r="R33" t="n">
-        <v>59.90457275094548</v>
+        <v>81.66668593414819</v>
       </c>
       <c r="S33" t="n">
-        <v>59.90457275094548</v>
+        <v>81.66668593414819</v>
       </c>
       <c r="T33" t="n">
-        <v>81.66668593414846</v>
+        <v>81.66668593414819</v>
       </c>
       <c r="U33" t="n">
-        <v>76.91780024377394</v>
+        <v>76.91780024377375</v>
       </c>
       <c r="V33" t="n">
-        <v>65.22522821969372</v>
+        <v>65.22522821969362</v>
       </c>
       <c r="W33" t="n">
-        <v>34.44740769915457</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="X33" t="n">
-        <v>34.44740769915457</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="Y33" t="n">
-        <v>34.44740769915457</v>
+        <v>34.44740769915455</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>78.04032337472279</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="C34" t="n">
-        <v>131.4786619242112</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="D34" t="n">
-        <v>203.362035073311</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="E34" t="n">
-        <v>203.362035073311</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="F34" t="n">
-        <v>203.362035073311</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="G34" t="n">
-        <v>203.362035073311</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="H34" t="n">
-        <v>203.362035073311</v>
+        <v>70.92042252514342</v>
       </c>
       <c r="I34" t="n">
-        <v>203.362035073311</v>
+        <v>70.92042252514342</v>
       </c>
       <c r="J34" t="n">
-        <v>203.362035073311</v>
+        <v>70.92042252514342</v>
       </c>
       <c r="K34" t="n">
-        <v>203.362035073311</v>
+        <v>70.92042252514342</v>
       </c>
       <c r="L34" t="n">
-        <v>203.362035073311</v>
+        <v>70.92042252514342</v>
       </c>
       <c r="M34" t="n">
-        <v>207.8621709343251</v>
+        <v>70.92042252514342</v>
       </c>
       <c r="N34" t="n">
-        <v>207.8621709343251</v>
+        <v>70.92042252514342</v>
       </c>
       <c r="O34" t="n">
-        <v>207.8621709343251</v>
+        <v>70.92042252514342</v>
       </c>
       <c r="P34" t="n">
-        <v>207.8621709343251</v>
+        <v>70.92042252514342</v>
       </c>
       <c r="Q34" t="n">
-        <v>207.8621709343251</v>
+        <v>155.8360083578989</v>
       </c>
       <c r="R34" t="n">
-        <v>207.8621709343251</v>
+        <v>207.8621709343247</v>
       </c>
       <c r="S34" t="n">
-        <v>207.8621709343251</v>
+        <v>207.8621709343247</v>
       </c>
       <c r="T34" t="n">
-        <v>201.9010500538241</v>
+        <v>201.9010500538237</v>
       </c>
       <c r="U34" t="n">
-        <v>136.160008217032</v>
+        <v>136.1600082170317</v>
       </c>
       <c r="V34" t="n">
-        <v>104.9350562188076</v>
+        <v>104.9350562188074</v>
       </c>
       <c r="W34" t="n">
-        <v>38.97742238950943</v>
+        <v>38.97742238950932</v>
       </c>
       <c r="X34" t="n">
-        <v>34.44740769915457</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="Y34" t="n">
-        <v>37.06129231771072</v>
+        <v>34.44740769915455</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>827.5379026594853</v>
+        <v>827.5379026594851</v>
       </c>
       <c r="C35" t="n">
-        <v>705.6867520190571</v>
+        <v>705.6867520190567</v>
       </c>
       <c r="D35" t="n">
-        <v>594.5324197122898</v>
+        <v>594.5324197122895</v>
       </c>
       <c r="E35" t="n">
-        <v>455.8555334140288</v>
+        <v>455.8555334140287</v>
       </c>
       <c r="F35" t="n">
         <v>291.9809949244045</v>
       </c>
       <c r="G35" t="n">
-        <v>120.0263557085881</v>
+        <v>120.026355708588</v>
       </c>
       <c r="H35" t="n">
-        <v>28.65512277858623</v>
+        <v>28.6551227785862</v>
       </c>
       <c r="I35" t="n">
-        <v>78.79010407355125</v>
+        <v>78.79010407355133</v>
       </c>
       <c r="J35" t="n">
-        <v>288.2832825510074</v>
+        <v>332.7594847059679</v>
       </c>
       <c r="K35" t="n">
-        <v>366.4103934583542</v>
+        <v>410.8865956133147</v>
       </c>
       <c r="L35" t="n">
-        <v>441.9667076717737</v>
+        <v>486.4429098267344</v>
       </c>
       <c r="M35" t="n">
-        <v>530.413628925089</v>
+        <v>574.8898310800498</v>
       </c>
       <c r="N35" t="n">
-        <v>620.9865725108608</v>
+        <v>665.4627746658217</v>
       </c>
       <c r="O35" t="n">
-        <v>706.6738388053363</v>
+        <v>751.1500409602974</v>
       </c>
       <c r="P35" t="n">
-        <v>1061.280983190341</v>
+        <v>966.272020452062</v>
       </c>
       <c r="Q35" t="n">
-        <v>1339.276039465997</v>
+        <v>1244.267076727718</v>
       </c>
       <c r="R35" t="n">
-        <v>1364.669194558244</v>
+        <v>1364.669194558242</v>
       </c>
       <c r="S35" t="n">
-        <v>1409.574980255828</v>
+        <v>1409.574980255826</v>
       </c>
       <c r="T35" t="n">
-        <v>1432.756138929311</v>
+        <v>1432.75613892931</v>
       </c>
       <c r="U35" t="n">
-        <v>1426.017544074267</v>
+        <v>1426.017544074266</v>
       </c>
       <c r="V35" t="n">
-        <v>1342.06602303068</v>
+        <v>1342.066023030679</v>
       </c>
       <c r="W35" t="n">
-        <v>1236.408734060549</v>
+        <v>1236.408734060548</v>
       </c>
       <c r="X35" t="n">
         <v>1110.054342099452</v>
       </c>
       <c r="Y35" t="n">
-        <v>967.0263764236238</v>
+        <v>967.0263764236234</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>28.65512277858623</v>
+        <v>28.6551227785862</v>
       </c>
       <c r="C36" t="n">
-        <v>28.65512277858623</v>
+        <v>28.6551227785862</v>
       </c>
       <c r="D36" t="n">
-        <v>28.65512277858623</v>
+        <v>28.6551227785862</v>
       </c>
       <c r="E36" t="n">
-        <v>28.65512277858623</v>
+        <v>28.6551227785862</v>
       </c>
       <c r="F36" t="n">
-        <v>28.65512277858623</v>
+        <v>28.6551227785862</v>
       </c>
       <c r="G36" t="n">
-        <v>28.65512277858623</v>
+        <v>28.6551227785862</v>
       </c>
       <c r="H36" t="n">
-        <v>28.65512277858623</v>
+        <v>28.6551227785862</v>
       </c>
       <c r="I36" t="n">
-        <v>28.65512277858623</v>
+        <v>28.6551227785862</v>
       </c>
       <c r="J36" t="n">
-        <v>28.65512277858623</v>
+        <v>28.6551227785862</v>
       </c>
       <c r="K36" t="n">
-        <v>28.65512277858623</v>
+        <v>28.6551227785862</v>
       </c>
       <c r="L36" t="n">
-        <v>28.65512277858623</v>
+        <v>28.6551227785862</v>
       </c>
       <c r="M36" t="n">
-        <v>28.65512277858623</v>
+        <v>28.6551227785862</v>
       </c>
       <c r="N36" t="n">
-        <v>28.65512277858623</v>
+        <v>28.6551227785862</v>
       </c>
       <c r="O36" t="n">
-        <v>28.65512277858623</v>
+        <v>28.6551227785862</v>
       </c>
       <c r="P36" t="n">
-        <v>28.65512277858623</v>
+        <v>28.6551227785862</v>
       </c>
       <c r="Q36" t="n">
-        <v>35.78111320680464</v>
+        <v>28.6551227785862</v>
       </c>
       <c r="R36" t="n">
-        <v>35.78111320680464</v>
+        <v>35.7811132068045</v>
       </c>
       <c r="S36" t="n">
-        <v>35.78111320680464</v>
+        <v>35.7811132068045</v>
       </c>
       <c r="T36" t="n">
-        <v>35.78111320680464</v>
+        <v>35.7811132068045</v>
       </c>
       <c r="U36" t="n">
-        <v>35.78111320680464</v>
+        <v>35.7811132068045</v>
       </c>
       <c r="V36" t="n">
-        <v>35.78111320680464</v>
+        <v>35.7811132068045</v>
       </c>
       <c r="W36" t="n">
-        <v>28.65512277858623</v>
+        <v>28.6551227785862</v>
       </c>
       <c r="X36" t="n">
-        <v>28.65512277858623</v>
+        <v>28.6551227785862</v>
       </c>
       <c r="Y36" t="n">
-        <v>28.65512277858623</v>
+        <v>28.6551227785862</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>47.39641405405299</v>
+        <v>28.6551227785862</v>
       </c>
       <c r="C37" t="n">
-        <v>47.39641405405299</v>
+        <v>28.6551227785862</v>
       </c>
       <c r="D37" t="n">
-        <v>47.39641405405299</v>
+        <v>28.6551227785862</v>
       </c>
       <c r="E37" t="n">
-        <v>47.39641405405299</v>
+        <v>28.6551227785862</v>
       </c>
       <c r="F37" t="n">
-        <v>47.39641405405299</v>
+        <v>28.6551227785862</v>
       </c>
       <c r="G37" t="n">
-        <v>47.39641405405299</v>
+        <v>28.6551227785862</v>
       </c>
       <c r="H37" t="n">
-        <v>47.39641405405299</v>
+        <v>28.6551227785862</v>
       </c>
       <c r="I37" t="n">
-        <v>47.39641405405299</v>
+        <v>28.6551227785862</v>
       </c>
       <c r="J37" t="n">
-        <v>47.39641405405299</v>
+        <v>28.6551227785862</v>
       </c>
       <c r="K37" t="n">
-        <v>47.39641405405299</v>
+        <v>28.6551227785862</v>
       </c>
       <c r="L37" t="n">
-        <v>47.39641405405299</v>
+        <v>28.6551227785862</v>
       </c>
       <c r="M37" t="n">
-        <v>47.39641405405299</v>
+        <v>103.2845960674337</v>
       </c>
       <c r="N37" t="n">
-        <v>47.39641405405299</v>
+        <v>103.2845960674337</v>
       </c>
       <c r="O37" t="n">
-        <v>79.55954737626922</v>
+        <v>103.2845960674337</v>
       </c>
       <c r="P37" t="n">
-        <v>79.55954737626922</v>
+        <v>103.2845960674337</v>
       </c>
       <c r="Q37" t="n">
-        <v>79.55954737626922</v>
+        <v>103.2845960674337</v>
       </c>
       <c r="R37" t="n">
-        <v>79.55954737626922</v>
+        <v>103.2845960674337</v>
       </c>
       <c r="S37" t="n">
-        <v>103.2845960674342</v>
+        <v>103.2845960674337</v>
       </c>
       <c r="T37" t="n">
-        <v>120.6232601659387</v>
+        <v>120.6232601659383</v>
       </c>
       <c r="U37" t="n">
-        <v>78.53404842146729</v>
+        <v>78.53404842146703</v>
       </c>
       <c r="V37" t="n">
-        <v>70.96092651556363</v>
+        <v>70.96092651556349</v>
       </c>
       <c r="W37" t="n">
-        <v>28.65512277858623</v>
+        <v>28.6551227785862</v>
       </c>
       <c r="X37" t="n">
-        <v>47.39641405405299</v>
+        <v>28.6551227785862</v>
       </c>
       <c r="Y37" t="n">
-        <v>47.39641405405299</v>
+        <v>28.6551227785862</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>827.537902659486</v>
+        <v>827.5379026594857</v>
       </c>
       <c r="C38" t="n">
-        <v>705.6867520190576</v>
+        <v>705.6867520190573</v>
       </c>
       <c r="D38" t="n">
-        <v>594.5324197122903</v>
+        <v>594.5324197122901</v>
       </c>
       <c r="E38" t="n">
-        <v>455.8555334140293</v>
+        <v>455.8555334140292</v>
       </c>
       <c r="F38" t="n">
         <v>291.980994924405</v>
       </c>
       <c r="G38" t="n">
-        <v>120.0263557085882</v>
+        <v>120.026355708588</v>
       </c>
       <c r="H38" t="n">
-        <v>28.65512277858625</v>
+        <v>28.65512277858622</v>
       </c>
       <c r="I38" t="n">
-        <v>78.79010407355128</v>
+        <v>78.79010407355136</v>
       </c>
       <c r="J38" t="n">
-        <v>345.0657804443182</v>
+        <v>345.0657804443184</v>
       </c>
       <c r="K38" t="n">
-        <v>423.192891351665</v>
+        <v>423.1928913516653</v>
       </c>
       <c r="L38" t="n">
-        <v>498.7492055650846</v>
+        <v>498.749205565085</v>
       </c>
       <c r="M38" t="n">
-        <v>587.1961268183999</v>
+        <v>587.1961268184004</v>
       </c>
       <c r="N38" t="n">
-        <v>677.7690704041717</v>
+        <v>677.7690704041723</v>
       </c>
       <c r="O38" t="n">
-        <v>1032.376214789176</v>
+        <v>763.456336698648</v>
       </c>
       <c r="P38" t="n">
-        <v>1106.494315661549</v>
+        <v>1031.331276126316</v>
       </c>
       <c r="Q38" t="n">
-        <v>1244.26707672772</v>
+        <v>1309.326332401972</v>
       </c>
       <c r="R38" t="n">
-        <v>1364.669194558244</v>
+        <v>1364.669194558243</v>
       </c>
       <c r="S38" t="n">
-        <v>1409.574980255829</v>
+        <v>1409.574980255827</v>
       </c>
       <c r="T38" t="n">
-        <v>1432.756138929312</v>
+        <v>1432.756138929311</v>
       </c>
       <c r="U38" t="n">
-        <v>1426.017544074268</v>
+        <v>1426.017544074267</v>
       </c>
       <c r="V38" t="n">
-        <v>1342.066023030681</v>
+        <v>1342.06602303068</v>
       </c>
       <c r="W38" t="n">
-        <v>1236.40873406055</v>
+        <v>1236.408734060549</v>
       </c>
       <c r="X38" t="n">
-        <v>1110.054342099453</v>
+        <v>1110.054342099452</v>
       </c>
       <c r="Y38" t="n">
-        <v>967.0263764236246</v>
+        <v>967.0263764236241</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>35.78111320680466</v>
+        <v>28.65512277858622</v>
       </c>
       <c r="C39" t="n">
-        <v>35.78111320680466</v>
+        <v>28.65512277858622</v>
       </c>
       <c r="D39" t="n">
-        <v>35.78111320680466</v>
+        <v>28.65512277858622</v>
       </c>
       <c r="E39" t="n">
-        <v>35.78111320680466</v>
+        <v>28.65512277858622</v>
       </c>
       <c r="F39" t="n">
-        <v>35.78111320680466</v>
+        <v>35.78111320680452</v>
       </c>
       <c r="G39" t="n">
-        <v>35.78111320680466</v>
+        <v>35.78111320680452</v>
       </c>
       <c r="H39" t="n">
-        <v>35.78111320680466</v>
+        <v>35.78111320680452</v>
       </c>
       <c r="I39" t="n">
-        <v>35.78111320680466</v>
+        <v>35.78111320680452</v>
       </c>
       <c r="J39" t="n">
-        <v>35.78111320680466</v>
+        <v>35.78111320680452</v>
       </c>
       <c r="K39" t="n">
-        <v>35.78111320680466</v>
+        <v>35.78111320680452</v>
       </c>
       <c r="L39" t="n">
-        <v>35.78111320680466</v>
+        <v>35.78111320680452</v>
       </c>
       <c r="M39" t="n">
-        <v>35.78111320680466</v>
+        <v>35.78111320680452</v>
       </c>
       <c r="N39" t="n">
-        <v>35.78111320680466</v>
+        <v>35.78111320680452</v>
       </c>
       <c r="O39" t="n">
-        <v>35.78111320680466</v>
+        <v>35.78111320680452</v>
       </c>
       <c r="P39" t="n">
-        <v>35.78111320680466</v>
+        <v>35.78111320680452</v>
       </c>
       <c r="Q39" t="n">
-        <v>35.78111320680466</v>
+        <v>35.78111320680452</v>
       </c>
       <c r="R39" t="n">
-        <v>35.78111320680466</v>
+        <v>35.78111320680452</v>
       </c>
       <c r="S39" t="n">
-        <v>35.78111320680466</v>
+        <v>35.78111320680452</v>
       </c>
       <c r="T39" t="n">
-        <v>35.78111320680466</v>
+        <v>35.78111320680452</v>
       </c>
       <c r="U39" t="n">
-        <v>35.78111320680466</v>
+        <v>35.78111320680452</v>
       </c>
       <c r="V39" t="n">
-        <v>35.78111320680466</v>
+        <v>35.78111320680452</v>
       </c>
       <c r="W39" t="n">
-        <v>28.65512277858625</v>
+        <v>28.65512277858622</v>
       </c>
       <c r="X39" t="n">
-        <v>28.65512277858625</v>
+        <v>28.65512277858622</v>
       </c>
       <c r="Y39" t="n">
-        <v>28.65512277858625</v>
+        <v>28.65512277858622</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>28.65512277858625</v>
+        <v>28.65512277858622</v>
       </c>
       <c r="C40" t="n">
-        <v>28.65512277858625</v>
+        <v>28.65512277858622</v>
       </c>
       <c r="D40" t="n">
-        <v>28.65512277858625</v>
+        <v>28.65512277858622</v>
       </c>
       <c r="E40" t="n">
-        <v>28.65512277858625</v>
+        <v>28.65512277858622</v>
       </c>
       <c r="F40" t="n">
-        <v>28.65512277858625</v>
+        <v>28.65512277858622</v>
       </c>
       <c r="G40" t="n">
-        <v>28.65512277858625</v>
+        <v>28.65512277858622</v>
       </c>
       <c r="H40" t="n">
-        <v>28.65512277858625</v>
+        <v>28.65512277858622</v>
       </c>
       <c r="I40" t="n">
-        <v>28.65512277858625</v>
+        <v>28.65512277858622</v>
       </c>
       <c r="J40" t="n">
-        <v>28.65512277858625</v>
+        <v>28.65512277858622</v>
       </c>
       <c r="K40" t="n">
-        <v>28.65512277858625</v>
+        <v>28.65512277858622</v>
       </c>
       <c r="L40" t="n">
-        <v>28.65512277858625</v>
+        <v>28.65512277858622</v>
       </c>
       <c r="M40" t="n">
-        <v>28.65512277858625</v>
+        <v>28.65512277858622</v>
       </c>
       <c r="N40" t="n">
-        <v>28.65512277858625</v>
+        <v>120.6232601659383</v>
       </c>
       <c r="O40" t="n">
-        <v>28.65512277858625</v>
+        <v>120.6232601659383</v>
       </c>
       <c r="P40" t="n">
-        <v>103.2845960674342</v>
+        <v>120.6232601659383</v>
       </c>
       <c r="Q40" t="n">
-        <v>103.2845960674342</v>
+        <v>120.6232601659383</v>
       </c>
       <c r="R40" t="n">
-        <v>103.2845960674342</v>
+        <v>120.6232601659383</v>
       </c>
       <c r="S40" t="n">
-        <v>103.2845960674342</v>
+        <v>120.6232601659383</v>
       </c>
       <c r="T40" t="n">
-        <v>120.6232601659387</v>
+        <v>120.6232601659383</v>
       </c>
       <c r="U40" t="n">
-        <v>78.5340484214673</v>
+        <v>78.53404842146705</v>
       </c>
       <c r="V40" t="n">
-        <v>70.96092651556364</v>
+        <v>70.9609265155635</v>
       </c>
       <c r="W40" t="n">
-        <v>28.65512277858625</v>
+        <v>28.65512277858622</v>
       </c>
       <c r="X40" t="n">
-        <v>28.65512277858625</v>
+        <v>28.65512277858622</v>
       </c>
       <c r="Y40" t="n">
-        <v>28.65512277858625</v>
+        <v>28.65512277858622</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>827.5379026594856</v>
+        <v>827.5379026594849</v>
       </c>
       <c r="C41" t="n">
-        <v>705.6867520190571</v>
+        <v>705.6867520190564</v>
       </c>
       <c r="D41" t="n">
-        <v>594.5324197122898</v>
+        <v>594.5324197122893</v>
       </c>
       <c r="E41" t="n">
-        <v>455.855533414029</v>
+        <v>455.8555334140285</v>
       </c>
       <c r="F41" t="n">
         <v>291.9809949244045</v>
       </c>
       <c r="G41" t="n">
-        <v>120.0263557085882</v>
+        <v>120.0263557085881</v>
       </c>
       <c r="H41" t="n">
-        <v>28.65512277858625</v>
+        <v>28.65512277858622</v>
       </c>
       <c r="I41" t="n">
-        <v>78.79010407355119</v>
+        <v>78.79010407355128</v>
       </c>
       <c r="J41" t="n">
-        <v>345.0657804443181</v>
+        <v>345.0657804443183</v>
       </c>
       <c r="K41" t="n">
-        <v>423.1928913516648</v>
+        <v>423.1928913516651</v>
       </c>
       <c r="L41" t="n">
-        <v>498.7492055650843</v>
+        <v>498.7492055650847</v>
       </c>
       <c r="M41" t="n">
-        <v>587.1961268183995</v>
+        <v>587.1961268184</v>
       </c>
       <c r="N41" t="n">
-        <v>677.7690704041712</v>
+        <v>677.7690704041718</v>
       </c>
       <c r="O41" t="n">
-        <v>763.4563366986466</v>
+        <v>763.4563366986473</v>
       </c>
       <c r="P41" t="n">
-        <v>1045.294835304076</v>
+        <v>966.2720204520632</v>
       </c>
       <c r="Q41" t="n">
-        <v>1244.267076727721</v>
+        <v>1244.267076727719</v>
       </c>
       <c r="R41" t="n">
-        <v>1364.669194558245</v>
+        <v>1364.669194558243</v>
       </c>
       <c r="S41" t="n">
-        <v>1409.574980255829</v>
+        <v>1409.574980255828</v>
       </c>
       <c r="T41" t="n">
-        <v>1432.756138929312</v>
+        <v>1432.756138929311</v>
       </c>
       <c r="U41" t="n">
-        <v>1426.017544074268</v>
+        <v>1426.017544074267</v>
       </c>
       <c r="V41" t="n">
-        <v>1342.06602303068</v>
+        <v>1342.066023030679</v>
       </c>
       <c r="W41" t="n">
-        <v>1236.408734060549</v>
+        <v>1236.408734060548</v>
       </c>
       <c r="X41" t="n">
-        <v>1110.054342099453</v>
+        <v>1110.054342099452</v>
       </c>
       <c r="Y41" t="n">
-        <v>967.0263764236242</v>
+        <v>967.0263764236234</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>28.65512277858625</v>
+        <v>28.65512277858622</v>
       </c>
       <c r="C42" t="n">
-        <v>28.65512277858625</v>
+        <v>28.65512277858622</v>
       </c>
       <c r="D42" t="n">
-        <v>28.65512277858625</v>
+        <v>28.65512277858622</v>
       </c>
       <c r="E42" t="n">
-        <v>28.65512277858625</v>
+        <v>28.65512277858622</v>
       </c>
       <c r="F42" t="n">
-        <v>28.65512277858625</v>
+        <v>28.65512277858622</v>
       </c>
       <c r="G42" t="n">
-        <v>28.65512277858625</v>
+        <v>28.65512277858622</v>
       </c>
       <c r="H42" t="n">
-        <v>28.65512277858625</v>
+        <v>28.65512277858622</v>
       </c>
       <c r="I42" t="n">
-        <v>28.65512277858625</v>
+        <v>28.65512277858622</v>
       </c>
       <c r="J42" t="n">
-        <v>28.65512277858625</v>
+        <v>28.65512277858622</v>
       </c>
       <c r="K42" t="n">
-        <v>28.65512277858625</v>
+        <v>28.65512277858622</v>
       </c>
       <c r="L42" t="n">
-        <v>28.65512277858625</v>
+        <v>28.65512277858622</v>
       </c>
       <c r="M42" t="n">
-        <v>28.65512277858625</v>
+        <v>28.65512277858622</v>
       </c>
       <c r="N42" t="n">
-        <v>28.65512277858625</v>
+        <v>28.65512277858622</v>
       </c>
       <c r="O42" t="n">
-        <v>28.65512277858625</v>
+        <v>28.65512277858622</v>
       </c>
       <c r="P42" t="n">
-        <v>28.65512277858625</v>
+        <v>28.65512277858622</v>
       </c>
       <c r="Q42" t="n">
-        <v>28.65512277858625</v>
+        <v>28.65512277858622</v>
       </c>
       <c r="R42" t="n">
-        <v>28.65512277858625</v>
+        <v>28.65512277858622</v>
       </c>
       <c r="S42" t="n">
-        <v>28.65512277858625</v>
+        <v>28.65512277858622</v>
       </c>
       <c r="T42" t="n">
-        <v>28.65512277858625</v>
+        <v>35.7811132068046</v>
       </c>
       <c r="U42" t="n">
-        <v>35.78111320680475</v>
+        <v>35.7811132068046</v>
       </c>
       <c r="V42" t="n">
-        <v>35.78111320680475</v>
+        <v>35.7811132068046</v>
       </c>
       <c r="W42" t="n">
-        <v>28.65512277858625</v>
+        <v>28.65512277858622</v>
       </c>
       <c r="X42" t="n">
-        <v>28.65512277858625</v>
+        <v>28.65512277858622</v>
       </c>
       <c r="Y42" t="n">
-        <v>28.65512277858625</v>
+        <v>28.65512277858622</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>28.65512277858625</v>
+        <v>28.65512277858622</v>
       </c>
       <c r="C43" t="n">
-        <v>28.65512277858625</v>
+        <v>28.65512277858622</v>
       </c>
       <c r="D43" t="n">
-        <v>28.65512277858625</v>
+        <v>28.65512277858622</v>
       </c>
       <c r="E43" t="n">
-        <v>28.65512277858625</v>
+        <v>28.65512277858622</v>
       </c>
       <c r="F43" t="n">
-        <v>28.65512277858625</v>
+        <v>28.65512277858622</v>
       </c>
       <c r="G43" t="n">
-        <v>28.65512277858625</v>
+        <v>28.65512277858622</v>
       </c>
       <c r="H43" t="n">
-        <v>28.65512277858625</v>
+        <v>28.65512277858622</v>
       </c>
       <c r="I43" t="n">
-        <v>28.65512277858625</v>
+        <v>28.65512277858622</v>
       </c>
       <c r="J43" t="n">
-        <v>28.65512277858625</v>
+        <v>120.6232601659386</v>
       </c>
       <c r="K43" t="n">
-        <v>28.65512277858625</v>
+        <v>120.6232601659386</v>
       </c>
       <c r="L43" t="n">
-        <v>28.65512277858625</v>
+        <v>120.6232601659386</v>
       </c>
       <c r="M43" t="n">
-        <v>28.65512277858625</v>
+        <v>120.6232601659386</v>
       </c>
       <c r="N43" t="n">
-        <v>28.65512277858625</v>
+        <v>120.6232601659386</v>
       </c>
       <c r="O43" t="n">
-        <v>28.65512277858625</v>
+        <v>120.6232601659386</v>
       </c>
       <c r="P43" t="n">
-        <v>28.65512277858625</v>
+        <v>120.6232601659386</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.6232601659389</v>
+        <v>120.6232601659386</v>
       </c>
       <c r="R43" t="n">
-        <v>120.6232601659389</v>
+        <v>120.6232601659386</v>
       </c>
       <c r="S43" t="n">
-        <v>120.6232601659389</v>
+        <v>120.6232601659386</v>
       </c>
       <c r="T43" t="n">
-        <v>120.6232601659389</v>
+        <v>120.6232601659386</v>
       </c>
       <c r="U43" t="n">
-        <v>78.53404842146747</v>
+        <v>78.53404842146722</v>
       </c>
       <c r="V43" t="n">
-        <v>70.96092651556373</v>
+        <v>70.96092651556359</v>
       </c>
       <c r="W43" t="n">
-        <v>28.65512277858625</v>
+        <v>28.65512277858622</v>
       </c>
       <c r="X43" t="n">
-        <v>28.65512277858625</v>
+        <v>28.65512277858622</v>
       </c>
       <c r="Y43" t="n">
-        <v>28.65512277858625</v>
+        <v>28.65512277858622</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>827.5379026594858</v>
+        <v>827.5379026594857</v>
       </c>
       <c r="C44" t="n">
-        <v>705.6867520190574</v>
+        <v>705.6867520190572</v>
       </c>
       <c r="D44" t="n">
-        <v>594.5324197122902</v>
+        <v>594.53241971229</v>
       </c>
       <c r="E44" t="n">
-        <v>455.855533414029</v>
+        <v>455.8555334140289</v>
       </c>
       <c r="F44" t="n">
         <v>291.9809949244045</v>
       </c>
       <c r="G44" t="n">
-        <v>120.0263557085882</v>
+        <v>120.0263557085881</v>
       </c>
       <c r="H44" t="n">
-        <v>28.65512277858625</v>
+        <v>28.65512277858622</v>
       </c>
       <c r="I44" t="n">
-        <v>33.70898256588507</v>
+        <v>78.79010407355128</v>
       </c>
       <c r="J44" t="n">
-        <v>214.1116067239016</v>
+        <v>345.0657804443183</v>
       </c>
       <c r="K44" t="n">
-        <v>568.7187511089064</v>
+        <v>413.2201011757833</v>
       </c>
       <c r="L44" t="n">
-        <v>923.3258954939113</v>
+        <v>692.5060441203807</v>
       </c>
       <c r="M44" t="n">
-        <v>1011.772816747227</v>
+        <v>780.9529653736961</v>
       </c>
       <c r="N44" t="n">
-        <v>1102.345760332998</v>
+        <v>871.5259089594679</v>
       </c>
       <c r="O44" t="n">
-        <v>1102.345760332998</v>
+        <v>957.2131752539434</v>
       </c>
       <c r="P44" t="n">
-        <v>1176.463861205371</v>
+        <v>1031.331276126316</v>
       </c>
       <c r="Q44" t="n">
-        <v>1244.267076727721</v>
+        <v>1309.326332401972</v>
       </c>
       <c r="R44" t="n">
-        <v>1364.669194558245</v>
+        <v>1364.669194558243</v>
       </c>
       <c r="S44" t="n">
-        <v>1409.574980255829</v>
+        <v>1409.574980255828</v>
       </c>
       <c r="T44" t="n">
-        <v>1432.756138929312</v>
+        <v>1432.756138929311</v>
       </c>
       <c r="U44" t="n">
-        <v>1426.017544074268</v>
+        <v>1426.017544074267</v>
       </c>
       <c r="V44" t="n">
-        <v>1342.066023030681</v>
+        <v>1342.06602303068</v>
       </c>
       <c r="W44" t="n">
-        <v>1236.40873406055</v>
+        <v>1236.408734060549</v>
       </c>
       <c r="X44" t="n">
         <v>1110.054342099453</v>
       </c>
       <c r="Y44" t="n">
-        <v>967.0263764236245</v>
+        <v>967.0263764236242</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>28.65512277858625</v>
+        <v>28.65512277858622</v>
       </c>
       <c r="C45" t="n">
-        <v>28.65512277858625</v>
+        <v>28.65512277858622</v>
       </c>
       <c r="D45" t="n">
-        <v>28.65512277858625</v>
+        <v>28.65512277858622</v>
       </c>
       <c r="E45" t="n">
-        <v>28.65512277858625</v>
+        <v>28.65512277858622</v>
       </c>
       <c r="F45" t="n">
-        <v>28.65512277858625</v>
+        <v>28.65512277858622</v>
       </c>
       <c r="G45" t="n">
-        <v>28.65512277858625</v>
+        <v>28.65512277858622</v>
       </c>
       <c r="H45" t="n">
-        <v>28.65512277858625</v>
+        <v>28.65512277858622</v>
       </c>
       <c r="I45" t="n">
-        <v>28.65512277858625</v>
+        <v>35.7811132068046</v>
       </c>
       <c r="J45" t="n">
-        <v>28.65512277858625</v>
+        <v>35.7811132068046</v>
       </c>
       <c r="K45" t="n">
-        <v>28.65512277858625</v>
+        <v>35.7811132068046</v>
       </c>
       <c r="L45" t="n">
-        <v>28.65512277858625</v>
+        <v>35.7811132068046</v>
       </c>
       <c r="M45" t="n">
-        <v>28.65512277858625</v>
+        <v>35.7811132068046</v>
       </c>
       <c r="N45" t="n">
-        <v>28.65512277858625</v>
+        <v>35.7811132068046</v>
       </c>
       <c r="O45" t="n">
-        <v>28.65512277858625</v>
+        <v>35.7811132068046</v>
       </c>
       <c r="P45" t="n">
-        <v>28.65512277858625</v>
+        <v>35.7811132068046</v>
       </c>
       <c r="Q45" t="n">
-        <v>28.65512277858625</v>
+        <v>35.7811132068046</v>
       </c>
       <c r="R45" t="n">
-        <v>28.65512277858625</v>
+        <v>35.7811132068046</v>
       </c>
       <c r="S45" t="n">
-        <v>28.65512277858625</v>
+        <v>35.7811132068046</v>
       </c>
       <c r="T45" t="n">
-        <v>28.65512277858625</v>
+        <v>35.7811132068046</v>
       </c>
       <c r="U45" t="n">
-        <v>28.65512277858625</v>
+        <v>35.7811132068046</v>
       </c>
       <c r="V45" t="n">
-        <v>35.78111320680475</v>
+        <v>35.7811132068046</v>
       </c>
       <c r="W45" t="n">
-        <v>28.65512277858625</v>
+        <v>28.65512277858622</v>
       </c>
       <c r="X45" t="n">
-        <v>28.65512277858625</v>
+        <v>28.65512277858622</v>
       </c>
       <c r="Y45" t="n">
-        <v>28.65512277858625</v>
+        <v>28.65512277858622</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>28.65512277858625</v>
+        <v>28.65512277858622</v>
       </c>
       <c r="C46" t="n">
-        <v>28.65512277858625</v>
+        <v>28.65512277858622</v>
       </c>
       <c r="D46" t="n">
-        <v>28.65512277858625</v>
+        <v>28.65512277858622</v>
       </c>
       <c r="E46" t="n">
-        <v>120.6232601659389</v>
+        <v>28.65512277858622</v>
       </c>
       <c r="F46" t="n">
-        <v>120.6232601659389</v>
+        <v>28.65512277858622</v>
       </c>
       <c r="G46" t="n">
-        <v>120.6232601659389</v>
+        <v>28.65512277858622</v>
       </c>
       <c r="H46" t="n">
-        <v>120.6232601659389</v>
+        <v>28.65512277858622</v>
       </c>
       <c r="I46" t="n">
-        <v>120.6232601659389</v>
+        <v>120.6232601659386</v>
       </c>
       <c r="J46" t="n">
-        <v>120.6232601659389</v>
+        <v>120.6232601659386</v>
       </c>
       <c r="K46" t="n">
-        <v>120.6232601659389</v>
+        <v>120.6232601659386</v>
       </c>
       <c r="L46" t="n">
-        <v>120.6232601659389</v>
+        <v>120.6232601659386</v>
       </c>
       <c r="M46" t="n">
-        <v>120.6232601659389</v>
+        <v>120.6232601659386</v>
       </c>
       <c r="N46" t="n">
-        <v>120.6232601659389</v>
+        <v>120.6232601659386</v>
       </c>
       <c r="O46" t="n">
-        <v>120.6232601659389</v>
+        <v>120.6232601659386</v>
       </c>
       <c r="P46" t="n">
-        <v>120.6232601659389</v>
+        <v>120.6232601659386</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.6232601659389</v>
+        <v>120.6232601659386</v>
       </c>
       <c r="R46" t="n">
-        <v>120.6232601659389</v>
+        <v>120.6232601659386</v>
       </c>
       <c r="S46" t="n">
-        <v>120.6232601659389</v>
+        <v>120.6232601659386</v>
       </c>
       <c r="T46" t="n">
-        <v>120.6232601659389</v>
+        <v>120.6232601659386</v>
       </c>
       <c r="U46" t="n">
-        <v>78.53404842146747</v>
+        <v>78.53404842146722</v>
       </c>
       <c r="V46" t="n">
-        <v>70.96092651556373</v>
+        <v>70.96092651556359</v>
       </c>
       <c r="W46" t="n">
-        <v>28.65512277858625</v>
+        <v>28.65512277858622</v>
       </c>
       <c r="X46" t="n">
-        <v>28.65512277858625</v>
+        <v>28.65512277858622</v>
       </c>
       <c r="Y46" t="n">
-        <v>28.65512277858625</v>
+        <v>28.65512277858622</v>
       </c>
     </row>
   </sheetData>
@@ -8687,7 +8687,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>144.7715381416157</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -8696,13 +8696,13 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>155.2999281386851</v>
       </c>
       <c r="N11" t="n">
-        <v>153.1524308331735</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>158.0874584001394</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -8766,28 +8766,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>105.2328625520064</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>100.9154559462057</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>40.47743640388546</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>84.19302733439812</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>47.50006961281447</v>
       </c>
       <c r="O12" t="n">
-        <v>88.18866638734502</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>90.30752936669637</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>110.7916225242057</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -8927,25 +8927,25 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>157.0522675676744</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>168.3207433304989</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>155.2999281386851</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>158.0874584001394</v>
+        <v>19.39722643373723</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>176.1521561497609</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -9009,16 +9009,16 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>88.90283864918112</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>71.86717946018477</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>88.18866638734502</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -9872,28 +9872,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>238.464444423828</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>367.4551137939853</v>
+        <v>141.7720556811001</v>
       </c>
       <c r="P26" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>176.1521561497609</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -9960,19 +9960,19 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>68.2108464300118</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>71.86717946018477</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>88.18866638734502</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>110.7916225242057</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -10048,7 +10048,7 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>114.5411443216187</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -10115,22 +10115,22 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>243.5369285221942</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>364.6675835325313</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>362.5200862270195</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>350.1147360488433</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10188,16 +10188,16 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>105.2328625520064</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>100.9154559462057</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>88.90283864918112</v>
       </c>
       <c r="M30" t="n">
-        <v>131.8892679758058</v>
+        <v>84.19302733439812</v>
       </c>
       <c r="N30" t="n">
         <v>71.86717946018477</v>
@@ -10209,7 +10209,7 @@
         <v>90.30752936669637</v>
       </c>
       <c r="Q30" t="n">
-        <v>110.7916225242057</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -10346,31 +10346,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>364.6675835325314</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>336.0884521147426</v>
       </c>
       <c r="O32" t="n">
-        <v>158.0874584001394</v>
+        <v>63.24452857983842</v>
       </c>
       <c r="P32" t="n">
-        <v>5.825936822323357</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10431,7 +10431,7 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>88.90283864918112</v>
       </c>
       <c r="M33" t="n">
         <v>84.19302733439812</v>
@@ -10443,7 +10443,7 @@
         <v>88.18866638734502</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>138.0037700081041</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -10507,22 +10507,22 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>106.7396511863337</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>113.419434785203</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>98.34817151022006</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>114.5411443216187</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>111.740556693982</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -10601,7 +10601,7 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>283.3222661743757</v>
+        <v>142.428160221608</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
@@ -10668,7 +10668,7 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>88.90283864918112</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10680,10 +10680,10 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>90.30752936669637</v>
       </c>
       <c r="Q36" t="n">
-        <v>117.9895926537193</v>
+        <v>110.7916225242057</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -10750,16 +10750,16 @@
         <v>106.382127875946</v>
       </c>
       <c r="M37" t="n">
-        <v>108.8738430064008</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
         <v>98.34817151022006</v>
       </c>
       <c r="O37" t="n">
-        <v>143.8467395932616</v>
+        <v>111.3587261364775</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>114.5411443216187</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -10835,16 +10835,16 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>271.6362404954841</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>195.7139783386817</v>
       </c>
       <c r="Q38" t="n">
-        <v>70.67630863012261</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,25 +10899,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>105.2328625520064</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>100.9154559462057</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>88.90283864918112</v>
       </c>
       <c r="M39" t="n">
-        <v>84.19302733439812</v>
+        <v>57.05795330266587</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>71.86717946018477</v>
       </c>
       <c r="O39" t="n">
         <v>88.18866638734502</v>
       </c>
       <c r="P39" t="n">
-        <v>50.73431868316419</v>
+        <v>90.30752936669637</v>
       </c>
       <c r="Q39" t="n">
         <v>110.7916225242057</v>
@@ -10984,10 +10984,10 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>106.382127875946</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>108.8738430064008</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
@@ -11075,7 +11075,7 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>209.8185835687444</v>
+        <v>129.9975584657004</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11142,13 +11142,13 @@
         <v>100.9154559462057</v>
       </c>
       <c r="L42" t="n">
-        <v>88.90283864918112</v>
+        <v>82.69531105748007</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>84.19302733439812</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>71.86717946018477</v>
       </c>
       <c r="O42" t="n">
         <v>88.18866638734502</v>
@@ -11294,13 +11294,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>82.35615839151785</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>279.2727610885435</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>281.8695254258437</v>
+        <v>205.7875037688664</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11309,16 +11309,16 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>158.0874584001394</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11385,10 +11385,10 @@
         <v>84.19302733439812</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>71.86717946018477</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>88.18866638734502</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -11455,22 +11455,22 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>106.7396511863337</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>106.382127875946</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>108.8738430064008</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>98.34817151022006</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>111.3587261364775</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>114.5411443216187</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
@@ -23255,25 +23255,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>168.6144048339939</v>
+        <v>168.614404833994</v>
       </c>
       <c r="C11" t="n">
-        <v>151.1534549415208</v>
+        <v>151.153454941521</v>
       </c>
       <c r="D11" t="n">
-        <v>140.5636047911962</v>
+        <v>140.5636047911964</v>
       </c>
       <c r="E11" t="n">
-        <v>167.8109332427751</v>
+        <v>95.40737173567078</v>
       </c>
       <c r="F11" t="n">
-        <v>192.7566089122247</v>
+        <v>192.7566089122249</v>
       </c>
       <c r="G11" t="n">
-        <v>200.7559086311548</v>
+        <v>200.755908631155</v>
       </c>
       <c r="H11" t="n">
-        <v>57.20527943274111</v>
+        <v>120.9783364081987</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23309,22 +23309,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>7.105504016099198</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>37.1920247139903</v>
+        <v>37.19202471399047</v>
       </c>
       <c r="V11" t="n">
-        <v>41.2292601335439</v>
+        <v>56.96526868129018</v>
       </c>
       <c r="W11" t="n">
-        <v>135.1215318879263</v>
+        <v>62.71797038082201</v>
       </c>
       <c r="X11" t="n">
-        <v>83.20810234187803</v>
+        <v>83.20810234187806</v>
       </c>
       <c r="Y11" t="n">
-        <v>99.71494031946258</v>
+        <v>172.118501826567</v>
       </c>
     </row>
     <row r="12">
@@ -23492,25 +23492,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>168.6144048339939</v>
+        <v>168.614404833994</v>
       </c>
       <c r="C14" t="n">
-        <v>151.1534549415208</v>
+        <v>151.153454941521</v>
       </c>
       <c r="D14" t="n">
-        <v>140.5636047911962</v>
+        <v>140.5636047911964</v>
       </c>
       <c r="E14" t="n">
-        <v>95.40737173567078</v>
+        <v>148.3354049974076</v>
       </c>
       <c r="F14" t="n">
-        <v>120.3530474051204</v>
+        <v>192.7566089122249</v>
       </c>
       <c r="G14" t="n">
-        <v>144.0883556717966</v>
+        <v>200.755908631155</v>
       </c>
       <c r="H14" t="n">
-        <v>48.57477490109425</v>
+        <v>48.57477490109424</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23549,19 +23549,19 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>37.19202471399029</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>113.6328216406482</v>
+        <v>41.2292601335439</v>
       </c>
       <c r="W14" t="n">
-        <v>135.1215318879263</v>
+        <v>62.71797038082204</v>
       </c>
       <c r="X14" t="n">
-        <v>155.6116638489823</v>
+        <v>155.6116638489825</v>
       </c>
       <c r="Y14" t="n">
-        <v>172.1185018265669</v>
+        <v>172.118501826567</v>
       </c>
     </row>
     <row r="15">
@@ -23741,7 +23741,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>-1.125499693443999e-12</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23792,7 +23792,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>1.350599632132798e-12</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -24032,10 +24032,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>-3.907985046680551e-13</v>
       </c>
       <c r="Y20" t="n">
-        <v>1.158184659288963e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1148916.506878283</v>
+        <v>1148916.506878284</v>
       </c>
     </row>
     <row r="7">
@@ -26314,16 +26314,16 @@
         <v>122891.4508075558</v>
       </c>
       <c r="C2" t="n">
-        <v>122891.4508075558</v>
+        <v>122891.4508075557</v>
       </c>
       <c r="D2" t="n">
         <v>122891.4508075557</v>
       </c>
       <c r="E2" t="n">
-        <v>105456.0326747524</v>
+        <v>105456.0326747523</v>
       </c>
       <c r="F2" t="n">
-        <v>105456.0326747524</v>
+        <v>105456.0326747523</v>
       </c>
       <c r="G2" t="n">
         <v>123156.2654796425</v>
@@ -26350,10 +26350,10 @@
         <v>123156.2654796426</v>
       </c>
       <c r="O2" t="n">
-        <v>123156.2654796425</v>
+        <v>123156.2654796426</v>
       </c>
       <c r="P2" t="n">
-        <v>123156.2654796425</v>
+        <v>123156.2654796426</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278326.4646668793</v>
+        <v>278326.4646668792</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>106979.8107928506</v>
+        <v>106979.8107928508</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>163718.1536871232</v>
+        <v>163718.153687123</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>106979.8107928505</v>
+        <v>106979.8107928509</v>
       </c>
       <c r="M3" t="n">
-        <v>18732.24943311802</v>
+        <v>18732.24943311805</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>70000.14188361807</v>
+        <v>70000.14188361781</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26433,7 +26433,7 @@
         <v>431842.1671902812</v>
       </c>
       <c r="H4" t="n">
-        <v>431842.1671902812</v>
+        <v>431842.1671902813</v>
       </c>
       <c r="I4" t="n">
         <v>431842.1671902812</v>
@@ -26476,25 +26476,25 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>24720.58373795487</v>
+        <v>24720.58373795486</v>
       </c>
       <c r="F5" t="n">
-        <v>24720.58373795487</v>
+        <v>24720.58373795486</v>
       </c>
       <c r="G5" t="n">
-        <v>35962.69087988506</v>
+        <v>35962.69087988509</v>
       </c>
       <c r="H5" t="n">
-        <v>35962.69087988506</v>
+        <v>35962.69087988509</v>
       </c>
       <c r="I5" t="n">
-        <v>35962.69087988506</v>
+        <v>35962.69087988509</v>
       </c>
       <c r="J5" t="n">
-        <v>47095.82966680982</v>
+        <v>47095.82966680983</v>
       </c>
       <c r="K5" t="n">
-        <v>47095.82966680985</v>
+        <v>47095.82966680983</v>
       </c>
       <c r="L5" t="n">
         <v>47095.82966680983</v>
@@ -26503,13 +26503,13 @@
         <v>44662.19497416889</v>
       </c>
       <c r="N5" t="n">
-        <v>44662.19497416891</v>
+        <v>44662.1949741689</v>
       </c>
       <c r="O5" t="n">
-        <v>44662.1949741689</v>
+        <v>44662.19497416889</v>
       </c>
       <c r="P5" t="n">
-        <v>44662.1949741689</v>
+        <v>44662.19497416889</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-378352.1091241754</v>
+        <v>-378356.5227020436</v>
       </c>
       <c r="C6" t="n">
-        <v>-378352.1091241754</v>
+        <v>-378356.5227020436</v>
       </c>
       <c r="D6" t="n">
-        <v>-378352.1091241755</v>
+        <v>-378356.5227020436</v>
       </c>
       <c r="E6" t="n">
-        <v>-564275.4260665496</v>
+        <v>-564570.4299466311</v>
       </c>
       <c r="F6" t="n">
-        <v>-285948.9613996703</v>
+        <v>-286243.965279752</v>
       </c>
       <c r="G6" t="n">
-        <v>-451628.4033833744</v>
+        <v>-451628.4033833746</v>
       </c>
       <c r="H6" t="n">
-        <v>-344648.5925905238</v>
+        <v>-344648.5925905239</v>
       </c>
       <c r="I6" t="n">
         <v>-344648.5925905238</v>
       </c>
       <c r="J6" t="n">
-        <v>-528557.6188333372</v>
+        <v>-528557.618833337</v>
       </c>
       <c r="K6" t="n">
-        <v>-364839.4651462141</v>
+        <v>-364839.465146214</v>
       </c>
       <c r="L6" t="n">
-        <v>-471819.2759390646</v>
+        <v>-471819.2759390649</v>
       </c>
       <c r="M6" t="n">
-        <v>-377208.8386130652</v>
+        <v>-377208.8386130653</v>
       </c>
       <c r="N6" t="n">
-        <v>-358476.5891799473</v>
+        <v>-358476.5891799472</v>
       </c>
       <c r="O6" t="n">
-        <v>-428476.7310635654</v>
+        <v>-428476.7310635649</v>
       </c>
       <c r="P6" t="n">
-        <v>-358476.5891799473</v>
+        <v>-358476.5891799472</v>
       </c>
     </row>
   </sheetData>
@@ -26692,19 +26692,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>214.1194368294867</v>
+        <v>214.1194368294865</v>
       </c>
       <c r="F2" t="n">
-        <v>214.1194368294867</v>
+        <v>214.1194368294865</v>
       </c>
       <c r="G2" t="n">
-        <v>347.84420032055</v>
+        <v>347.8442003205501</v>
       </c>
       <c r="H2" t="n">
-        <v>347.84420032055</v>
+        <v>347.8442003205501</v>
       </c>
       <c r="I2" t="n">
-        <v>347.84420032055</v>
+        <v>347.8442003205501</v>
       </c>
       <c r="J2" t="n">
         <v>221.2249408455859</v>
@@ -26713,19 +26713,19 @@
         <v>221.2249408455859</v>
       </c>
       <c r="L2" t="n">
-        <v>221.2249408455858</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="M2" t="n">
+        <v>244.6402526369835</v>
+      </c>
+      <c r="N2" t="n">
+        <v>244.6402526369835</v>
+      </c>
+      <c r="O2" t="n">
         <v>244.6402526369834</v>
       </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>244.6402526369834</v>
-      </c>
-      <c r="O2" t="n">
-        <v>244.6402526369833</v>
-      </c>
-      <c r="P2" t="n">
-        <v>244.6402526369833</v>
       </c>
     </row>
     <row r="3">
@@ -26796,40 +26796,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>72.40356150710429</v>
+        <v>72.40356150710446</v>
       </c>
       <c r="F4" t="n">
-        <v>72.40356150710429</v>
+        <v>72.40356150710446</v>
       </c>
       <c r="G4" t="n">
-        <v>72.40356150710429</v>
+        <v>72.40356150710446</v>
       </c>
       <c r="H4" t="n">
-        <v>72.40356150710429</v>
+        <v>72.40356150710446</v>
       </c>
       <c r="I4" t="n">
-        <v>72.40356150710429</v>
+        <v>72.40356150710446</v>
       </c>
       <c r="J4" t="n">
-        <v>430.5925962394318</v>
+        <v>430.5925962394319</v>
       </c>
       <c r="K4" t="n">
-        <v>430.5925962394322</v>
+        <v>430.5925962394319</v>
       </c>
       <c r="L4" t="n">
-        <v>430.5925962394322</v>
+        <v>430.5925962394319</v>
       </c>
       <c r="M4" t="n">
-        <v>358.1890347323279</v>
+        <v>358.1890347323275</v>
       </c>
       <c r="N4" t="n">
-        <v>358.1890347323281</v>
+        <v>358.1890347323277</v>
       </c>
       <c r="O4" t="n">
-        <v>358.1890347323281</v>
+        <v>358.1890347323277</v>
       </c>
       <c r="P4" t="n">
-        <v>358.1890347323281</v>
+        <v>358.1890347323277</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>214.1194368294867</v>
+        <v>214.1194368294865</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>133.7247634910633</v>
+        <v>133.7247634910636</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>87.50017735452266</v>
+        <v>87.50017735452235</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>133.7247634910632</v>
+        <v>133.7247634910636</v>
       </c>
       <c r="M2" t="n">
-        <v>23.41531179139753</v>
+        <v>23.41531179139756</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>87.50017735452258</v>
+        <v>87.50017735452226</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>72.40356150710429</v>
+        <v>72.40356150710446</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>214.1194368294867</v>
+        <v>214.1194368294865</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>133.7247634910633</v>
+        <v>133.7247634910636</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>87.50017735452266</v>
+        <v>87.50017735452235</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>72.40356150710429</v>
+        <v>72.40356150710446</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28087,76 +28087,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>214.1194368294867</v>
+        <v>214.1194368294865</v>
       </c>
       <c r="C11" t="n">
-        <v>214.1194368294867</v>
+        <v>214.1194368294865</v>
       </c>
       <c r="D11" t="n">
-        <v>214.1194368294867</v>
+        <v>214.1194368294865</v>
       </c>
       <c r="E11" t="n">
-        <v>214.1194368294867</v>
+        <v>214.1194368294865</v>
       </c>
       <c r="F11" t="n">
-        <v>214.1194368294867</v>
+        <v>214.1194368294865</v>
       </c>
       <c r="G11" t="n">
-        <v>214.1194368294867</v>
+        <v>214.1194368294865</v>
       </c>
       <c r="H11" t="n">
-        <v>214.1194368294867</v>
+        <v>214.1194368294865</v>
       </c>
       <c r="I11" t="n">
-        <v>194.9778024413235</v>
+        <v>214.1194368294865</v>
       </c>
       <c r="J11" t="n">
-        <v>214.1194368294867</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>214.1194368294867</v>
+        <v>214.1194368294865</v>
       </c>
       <c r="L11" t="n">
-        <v>214.1194368294867</v>
+        <v>214.1194368294865</v>
       </c>
       <c r="M11" t="n">
-        <v>214.1194368294867</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>214.1194368294865</v>
       </c>
       <c r="O11" t="n">
-        <v>158.0874584001394</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>169.7734840790313</v>
+        <v>214.1194368294865</v>
       </c>
       <c r="Q11" t="n">
-        <v>214.1194368294867</v>
+        <v>214.1194368294865</v>
       </c>
       <c r="R11" t="n">
-        <v>214.1194368294867</v>
+        <v>214.1194368294865</v>
       </c>
       <c r="S11" t="n">
-        <v>199.280873144474</v>
+        <v>202.9936873882166</v>
       </c>
       <c r="T11" t="n">
-        <v>214.1194368294867</v>
+        <v>214.1194368294865</v>
       </c>
       <c r="U11" t="n">
-        <v>214.1194368294867</v>
+        <v>214.1194368294865</v>
       </c>
       <c r="V11" t="n">
-        <v>214.1194368294867</v>
+        <v>214.1194368294865</v>
       </c>
       <c r="W11" t="n">
-        <v>214.1194368294867</v>
+        <v>214.1194368294865</v>
       </c>
       <c r="X11" t="n">
-        <v>214.1194368294867</v>
+        <v>214.1194368294865</v>
       </c>
       <c r="Y11" t="n">
-        <v>214.1194368294867</v>
+        <v>214.1194368294865</v>
       </c>
     </row>
     <row r="12">
@@ -28166,7 +28166,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>214.1194368294867</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
@@ -28181,37 +28181,37 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>158.9741533035351</v>
+        <v>137.114842254054</v>
       </c>
       <c r="H12" t="n">
         <v>110.026926034905</v>
       </c>
       <c r="I12" t="n">
-        <v>91.649142996143</v>
+        <v>137.7815376808752</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>105.2328625520064</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>100.9154559462057</v>
       </c>
       <c r="L12" t="n">
-        <v>48.42540224529566</v>
+        <v>88.90283864918112</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>84.19302733439812</v>
       </c>
       <c r="N12" t="n">
-        <v>71.86717946018477</v>
+        <v>24.3671098473703</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>88.18866638734502</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>90.30752936669637</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>110.7916225242057</v>
       </c>
       <c r="R12" t="n">
         <v>131.4816003936965</v>
@@ -28220,22 +28220,22 @@
         <v>167.4356349622666</v>
       </c>
       <c r="T12" t="n">
-        <v>199.2430083373</v>
+        <v>214.1194368294865</v>
       </c>
       <c r="U12" t="n">
-        <v>214.1194368294867</v>
+        <v>214.1194368294865</v>
       </c>
       <c r="V12" t="n">
-        <v>214.1194368294867</v>
+        <v>214.1194368294865</v>
       </c>
       <c r="W12" t="n">
-        <v>214.1194368294867</v>
+        <v>214.1194368294865</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>214.1194368294865</v>
       </c>
     </row>
     <row r="13">
@@ -28245,34 +28245,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>214.1194368294867</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>214.1194368294865</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>214.1194368294867</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>214.1194368294867</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>167.7992659963099</v>
+        <v>214.1194368294865</v>
       </c>
       <c r="H13" t="n">
         <v>160.5226664330617</v>
       </c>
       <c r="I13" t="n">
-        <v>201.6742262524454</v>
+        <v>214.1194368294865</v>
       </c>
       <c r="J13" t="n">
         <v>113.441286735473</v>
       </c>
       <c r="K13" t="n">
-        <v>106.7396511863337</v>
+        <v>171.7729736822808</v>
       </c>
       <c r="L13" t="n">
         <v>106.382127875946</v>
@@ -28296,25 +28296,25 @@
         <v>168.6732614754589</v>
       </c>
       <c r="S13" t="n">
-        <v>214.1194368294867</v>
+        <v>214.1194368294865</v>
       </c>
       <c r="T13" t="n">
-        <v>214.1194368294867</v>
+        <v>214.1194368294865</v>
       </c>
       <c r="U13" t="n">
-        <v>214.1194368294867</v>
+        <v>214.1194368294865</v>
       </c>
       <c r="V13" t="n">
-        <v>214.1194368294867</v>
+        <v>214.1194368294865</v>
       </c>
       <c r="W13" t="n">
-        <v>214.1194368294867</v>
+        <v>214.1194368294865</v>
       </c>
       <c r="X13" t="n">
-        <v>214.1194368294867</v>
+        <v>214.1194368294865</v>
       </c>
       <c r="Y13" t="n">
-        <v>214.1194368294867</v>
+        <v>214.1194368294865</v>
       </c>
     </row>
     <row r="14">
@@ -28324,76 +28324,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>214.1194368294867</v>
+        <v>214.1194368294865</v>
       </c>
       <c r="C14" t="n">
-        <v>214.1194368294867</v>
+        <v>214.1194368294865</v>
       </c>
       <c r="D14" t="n">
-        <v>214.1194368294867</v>
+        <v>214.1194368294865</v>
       </c>
       <c r="E14" t="n">
-        <v>214.1194368294867</v>
+        <v>214.1194368294865</v>
       </c>
       <c r="F14" t="n">
-        <v>214.1194368294867</v>
+        <v>214.1194368294865</v>
       </c>
       <c r="G14" t="n">
-        <v>214.1194368294867</v>
+        <v>214.1194368294865</v>
       </c>
       <c r="H14" t="n">
-        <v>214.1194368294867</v>
+        <v>214.1194368294865</v>
       </c>
       <c r="I14" t="n">
-        <v>214.1194368294867</v>
+        <v>214.1194368294865</v>
       </c>
       <c r="J14" t="n">
-        <v>214.1194368294867</v>
+        <v>214.1194368294865</v>
       </c>
       <c r="K14" t="n">
-        <v>8.671711425524309</v>
+        <v>214.1194368294865</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>214.1194368294865</v>
       </c>
       <c r="M14" t="n">
-        <v>213.3663840952733</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>214.1194368294867</v>
+        <v>214.1194368294865</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>138.6902319664022</v>
       </c>
       <c r="P14" t="n">
-        <v>169.7734840790313</v>
+        <v>171.6130693800714</v>
       </c>
       <c r="Q14" t="n">
-        <v>214.1194368294867</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>214.1194368294867</v>
+        <v>214.1194368294865</v>
       </c>
       <c r="S14" t="n">
-        <v>214.1194368294867</v>
+        <v>214.1194368294865</v>
       </c>
       <c r="T14" t="n">
-        <v>214.1194368294867</v>
+        <v>214.1194368294865</v>
       </c>
       <c r="U14" t="n">
-        <v>214.1194368294867</v>
+        <v>214.1194368294865</v>
       </c>
       <c r="V14" t="n">
-        <v>214.1194368294867</v>
+        <v>214.1194368294865</v>
       </c>
       <c r="W14" t="n">
-        <v>214.1194368294867</v>
+        <v>214.1194368294865</v>
       </c>
       <c r="X14" t="n">
-        <v>214.1194368294867</v>
+        <v>214.1194368294865</v>
       </c>
       <c r="Y14" t="n">
-        <v>214.1194368294867</v>
+        <v>214.1194368294865</v>
       </c>
     </row>
     <row r="15">
@@ -28418,7 +28418,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>174.9007853127762</v>
+        <v>137.114842254054</v>
       </c>
       <c r="H15" t="n">
         <v>110.026926034905</v>
@@ -28433,19 +28433,19 @@
         <v>100.9154559462057</v>
       </c>
       <c r="L15" t="n">
-        <v>88.90283864918112</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>84.19302733439812</v>
       </c>
       <c r="N15" t="n">
-        <v>71.86717946018477</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>88.18866638734502</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>90.30752936669637</v>
+        <v>159.7530935957973</v>
       </c>
       <c r="Q15" t="n">
         <v>110.7916225242057</v>
@@ -28457,22 +28457,22 @@
         <v>167.4356349622666</v>
       </c>
       <c r="T15" t="n">
-        <v>214.1194368294867</v>
+        <v>199.2430083373</v>
       </c>
       <c r="U15" t="n">
-        <v>214.1194368294867</v>
+        <v>214.1194368294865</v>
       </c>
       <c r="V15" t="n">
-        <v>214.1194368294867</v>
+        <v>214.1194368294865</v>
       </c>
       <c r="W15" t="n">
-        <v>214.1194368294867</v>
+        <v>214.1194368294865</v>
       </c>
       <c r="X15" t="n">
-        <v>214.1194368294867</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>214.1194368294867</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -28482,10 +28482,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>214.1194368294865</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>214.1194368294865</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -28500,7 +28500,7 @@
         <v>167.7992659963099</v>
       </c>
       <c r="H16" t="n">
-        <v>214.1194368294867</v>
+        <v>160.5226664330617</v>
       </c>
       <c r="I16" t="n">
         <v>149.6851312728186</v>
@@ -28512,46 +28512,46 @@
         <v>106.7396511863337</v>
       </c>
       <c r="L16" t="n">
-        <v>178.7856893830503</v>
+        <v>106.382127875946</v>
       </c>
       <c r="M16" t="n">
-        <v>181.2774045135051</v>
+        <v>108.8738430064008</v>
       </c>
       <c r="N16" t="n">
-        <v>122.6046927162357</v>
+        <v>98.34817151022006</v>
       </c>
       <c r="O16" t="n">
         <v>111.3587261364775</v>
       </c>
       <c r="P16" t="n">
-        <v>114.5411443216187</v>
+        <v>138.191749698729</v>
       </c>
       <c r="Q16" t="n">
-        <v>135.4516218226006</v>
+        <v>207.8551833297051</v>
       </c>
       <c r="R16" t="n">
-        <v>168.6732614754589</v>
+        <v>214.1194368294865</v>
       </c>
       <c r="S16" t="n">
-        <v>214.1194368294867</v>
+        <v>214.1194368294865</v>
       </c>
       <c r="T16" t="n">
-        <v>214.1194368294867</v>
+        <v>214.1194368294865</v>
       </c>
       <c r="U16" t="n">
-        <v>214.1194368294867</v>
+        <v>214.1194368294865</v>
       </c>
       <c r="V16" t="n">
-        <v>214.1194368294867</v>
+        <v>214.1194368294865</v>
       </c>
       <c r="W16" t="n">
-        <v>214.1194368294867</v>
+        <v>214.1194368294865</v>
       </c>
       <c r="X16" t="n">
-        <v>214.1194368294867</v>
+        <v>214.1194368294865</v>
       </c>
       <c r="Y16" t="n">
-        <v>214.1194368294867</v>
+        <v>214.1194368294865</v>
       </c>
     </row>
     <row r="17">
@@ -28561,37 +28561,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>347.84420032055</v>
+        <v>347.8442003205501</v>
       </c>
       <c r="C17" t="n">
-        <v>347.84420032055</v>
+        <v>347.8442003205501</v>
       </c>
       <c r="D17" t="n">
-        <v>347.84420032055</v>
+        <v>347.8442003205501</v>
       </c>
       <c r="E17" t="n">
-        <v>347.84420032055</v>
+        <v>347.8442003205501</v>
       </c>
       <c r="F17" t="n">
-        <v>347.84420032055</v>
+        <v>347.8442003205501</v>
       </c>
       <c r="G17" t="n">
-        <v>347.84420032055</v>
+        <v>347.8442003205501</v>
       </c>
       <c r="H17" t="n">
-        <v>347.84420032055</v>
+        <v>347.8442003205501</v>
       </c>
       <c r="I17" t="n">
-        <v>266.4024188966482</v>
+        <v>193.998857389544</v>
       </c>
       <c r="J17" t="n">
-        <v>144.7715381416157</v>
+        <v>217.1750996487202</v>
       </c>
       <c r="K17" t="n">
         <v>165.7239789931987</v>
       </c>
       <c r="L17" t="n">
-        <v>168.3207433304989</v>
+        <v>204.9605394797939</v>
       </c>
       <c r="M17" t="n">
         <v>155.2999281386851</v>
@@ -28612,25 +28612,25 @@
         <v>188.7383716710527</v>
       </c>
       <c r="S17" t="n">
-        <v>256.0126111441841</v>
+        <v>199.280873144474</v>
       </c>
       <c r="T17" t="n">
-        <v>293.6285023526902</v>
+        <v>293.6285023526904</v>
       </c>
       <c r="U17" t="n">
-        <v>323.7150230505813</v>
+        <v>323.7150230505815</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>347.8442003205501</v>
       </c>
       <c r="W17" t="n">
-        <v>347.84420032055</v>
+        <v>347.8442003205501</v>
       </c>
       <c r="X17" t="n">
-        <v>347.84420032055</v>
+        <v>347.8442003205501</v>
       </c>
       <c r="Y17" t="n">
-        <v>347.84420032055</v>
+        <v>347.8442003205501</v>
       </c>
     </row>
     <row r="18">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>347.84420032055</v>
+        <v>347.8442003205501</v>
       </c>
       <c r="C20" t="n">
-        <v>347.84420032055</v>
+        <v>347.8442003205501</v>
       </c>
       <c r="D20" t="n">
-        <v>347.84420032055</v>
+        <v>347.8442003205501</v>
       </c>
       <c r="E20" t="n">
-        <v>347.84420032055</v>
+        <v>347.8442003205501</v>
       </c>
       <c r="F20" t="n">
-        <v>347.84420032055</v>
+        <v>347.8442003205501</v>
       </c>
       <c r="G20" t="n">
-        <v>347.84420032055</v>
+        <v>347.8442003205501</v>
       </c>
       <c r="H20" t="n">
-        <v>347.84420032055</v>
+        <v>347.8442003205501</v>
       </c>
       <c r="I20" t="n">
-        <v>193.998857389544</v>
+        <v>230.6386535388389</v>
       </c>
       <c r="J20" t="n">
         <v>144.7715381416157</v>
@@ -28843,31 +28843,31 @@
         <v>169.7734840790313</v>
       </c>
       <c r="Q20" t="n">
-        <v>232.883894149471</v>
+        <v>176.1521561497609</v>
       </c>
       <c r="R20" t="n">
         <v>188.7383716710527</v>
       </c>
       <c r="S20" t="n">
-        <v>271.6844346515782</v>
+        <v>271.6844346515784</v>
       </c>
       <c r="T20" t="n">
-        <v>293.6285023526902</v>
+        <v>293.6285023526904</v>
       </c>
       <c r="U20" t="n">
-        <v>323.7150230505813</v>
+        <v>323.7150230505815</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>347.8442003205501</v>
       </c>
       <c r="W20" t="n">
-        <v>347.84420032055</v>
+        <v>347.8442003205501</v>
       </c>
       <c r="X20" t="n">
-        <v>347.84420032055</v>
+        <v>347.8442003205501</v>
       </c>
       <c r="Y20" t="n">
-        <v>347.84420032055</v>
+        <v>347.8442003205501</v>
       </c>
     </row>
     <row r="21">
@@ -29035,31 +29035,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>347.84420032055</v>
+        <v>347.8442003205501</v>
       </c>
       <c r="C23" t="n">
-        <v>347.84420032055</v>
+        <v>347.8442003205501</v>
       </c>
       <c r="D23" t="n">
-        <v>347.84420032055</v>
+        <v>347.8442003205501</v>
       </c>
       <c r="E23" t="n">
-        <v>347.84420032055</v>
+        <v>347.8442003205501</v>
       </c>
       <c r="F23" t="n">
-        <v>347.84420032055</v>
+        <v>347.8442003205501</v>
       </c>
       <c r="G23" t="n">
-        <v>347.84420032055</v>
+        <v>347.8442003205501</v>
       </c>
       <c r="H23" t="n">
-        <v>347.84420032055</v>
+        <v>335.0977732376853</v>
       </c>
       <c r="I23" t="n">
-        <v>266.4024188966482</v>
+        <v>193.998857389544</v>
       </c>
       <c r="J23" t="n">
-        <v>217.17509964872</v>
+        <v>144.7715381416157</v>
       </c>
       <c r="K23" t="n">
         <v>165.7239789931987</v>
@@ -29068,22 +29068,22 @@
         <v>168.3207433304989</v>
       </c>
       <c r="M23" t="n">
-        <v>155.2999281386851</v>
+        <v>227.7034896457895</v>
       </c>
       <c r="N23" t="n">
-        <v>153.1524308331735</v>
+        <v>225.555992340278</v>
       </c>
       <c r="O23" t="n">
-        <v>158.0874584001394</v>
+        <v>230.4910199072438</v>
       </c>
       <c r="P23" t="n">
-        <v>169.7734840790313</v>
+        <v>239.2516491616063</v>
       </c>
       <c r="Q23" t="n">
         <v>176.1521561497609</v>
       </c>
       <c r="R23" t="n">
-        <v>245.4701096707628</v>
+        <v>188.7383716710527</v>
       </c>
       <c r="S23" t="n">
         <v>199.280873144474</v>
@@ -29092,19 +29092,19 @@
         <v>221.2249408455859</v>
       </c>
       <c r="U23" t="n">
-        <v>323.7150230505813</v>
+        <v>251.311461543477</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>347.84420032055</v>
+        <v>347.8442003205501</v>
       </c>
       <c r="X23" t="n">
-        <v>347.84420032055</v>
+        <v>347.8442003205501</v>
       </c>
       <c r="Y23" t="n">
-        <v>347.84420032055</v>
+        <v>347.8442003205501</v>
       </c>
     </row>
     <row r="24">
@@ -29299,13 +29299,13 @@
         <v>221.2249408455859</v>
       </c>
       <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
         <v>221.2249408455859</v>
       </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
       <c r="M26" t="n">
-        <v>221.2249408455859</v>
+        <v>124.1152621865357</v>
       </c>
       <c r="N26" t="n">
         <v>221.2249408455859</v>
@@ -29366,7 +29366,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>184.8110828954617</v>
+        <v>137.114842254054</v>
       </c>
       <c r="H27" t="n">
         <v>110.026926034905</v>
@@ -29384,22 +29384,22 @@
         <v>88.90283864918112</v>
       </c>
       <c r="M27" t="n">
-        <v>15.98218090438632</v>
+        <v>84.19302733439812</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>71.86717946018477</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>88.18866638734502</v>
       </c>
       <c r="P27" t="n">
         <v>90.30752936669637</v>
       </c>
       <c r="Q27" t="n">
-        <v>110.7916225242057</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>131.4816003936965</v>
+        <v>179.1778410351043</v>
       </c>
       <c r="S27" t="n">
         <v>167.4356349622666</v>
@@ -29454,25 +29454,25 @@
         <v>149.6851312728186</v>
       </c>
       <c r="J28" t="n">
-        <v>113.441286735473</v>
+        <v>174.1224245864938</v>
       </c>
       <c r="K28" t="n">
-        <v>106.7396511863337</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="L28" t="n">
-        <v>221.2249408455859</v>
+        <v>106.382127875946</v>
       </c>
       <c r="M28" t="n">
         <v>108.8738430064008</v>
       </c>
       <c r="N28" t="n">
-        <v>158.671786050853</v>
+        <v>98.34817151022006</v>
       </c>
       <c r="O28" t="n">
         <v>111.3587261364775</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>114.5411443216187</v>
       </c>
       <c r="Q28" t="n">
         <v>135.4516218226006</v>
@@ -29530,7 +29530,7 @@
         <v>221.2249408455859</v>
       </c>
       <c r="I29" t="n">
-        <v>221.2249408455859</v>
+        <v>193.998857389544</v>
       </c>
       <c r="J29" t="n">
         <v>221.2249408455859</v>
@@ -29539,19 +29539,19 @@
         <v>221.2249408455859</v>
       </c>
       <c r="L29" t="n">
-        <v>221.2249408455859</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>221.2249408455859</v>
       </c>
       <c r="N29" t="n">
-        <v>42.44026911730854</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="O29" t="n">
         <v>221.2249408455859</v>
       </c>
       <c r="P29" t="n">
-        <v>221.2249408455859</v>
+        <v>118.6070432488659</v>
       </c>
       <c r="Q29" t="n">
         <v>221.2249408455859</v>
@@ -29560,7 +29560,7 @@
         <v>221.2249408455859</v>
       </c>
       <c r="S29" t="n">
-        <v>221.2249408455859</v>
+        <v>199.280873144474</v>
       </c>
       <c r="T29" t="n">
         <v>221.2249408455859</v>
@@ -29612,10 +29612,10 @@
         <v>91.649142996143</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>105.2328625520064</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>148.6116965876136</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -29633,7 +29633,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>110.7916225242057</v>
       </c>
       <c r="R30" t="n">
         <v>131.4816003936965</v>
@@ -29682,13 +29682,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>221.2249408455859</v>
+        <v>167.7992659963099</v>
       </c>
       <c r="H31" t="n">
-        <v>221.2249408455859</v>
+        <v>160.5226664330617</v>
       </c>
       <c r="I31" t="n">
-        <v>155.531642657673</v>
+        <v>149.6851312728186</v>
       </c>
       <c r="J31" t="n">
         <v>113.441286735473</v>
@@ -29703,10 +29703,10 @@
         <v>108.8738430064008</v>
       </c>
       <c r="N31" t="n">
-        <v>98.34817151022006</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="O31" t="n">
-        <v>111.3587261364775</v>
+        <v>163.6483843113847</v>
       </c>
       <c r="P31" t="n">
         <v>114.5411443216187</v>
@@ -29715,7 +29715,7 @@
         <v>135.4516218226006</v>
       </c>
       <c r="R31" t="n">
-        <v>221.2249408455859</v>
+        <v>168.6732614754589</v>
       </c>
       <c r="S31" t="n">
         <v>220.675556989342</v>
@@ -29736,7 +29736,7 @@
         <v>221.2249408455859</v>
       </c>
       <c r="Y31" t="n">
-        <v>221.2249408455859</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>221.2249408455858</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="C32" t="n">
-        <v>221.2249408455858</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="D32" t="n">
-        <v>221.2249408455858</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="E32" t="n">
-        <v>221.2249408455858</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="F32" t="n">
-        <v>221.2249408455858</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="G32" t="n">
-        <v>221.2249408455858</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="H32" t="n">
-        <v>221.2249408455858</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="I32" t="n">
-        <v>221.2249408455858</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="J32" t="n">
-        <v>221.2249408455858</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="K32" t="n">
-        <v>221.2249408455858</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>104.5454604259778</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="M32" t="n">
-        <v>221.2249408455858</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="N32" t="n">
-        <v>221.2249408455858</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>94.84292982030098</v>
       </c>
       <c r="P32" t="n">
-        <v>221.2249408455858</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="Q32" t="n">
-        <v>221.2249408455858</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="R32" t="n">
-        <v>221.2249408455858</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="S32" t="n">
-        <v>221.2249408455858</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="T32" t="n">
         <v>221.2249408455859</v>
       </c>
       <c r="U32" t="n">
-        <v>221.2249408455858</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="V32" t="n">
-        <v>221.2249408455858</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="W32" t="n">
-        <v>221.2249408455858</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="X32" t="n">
-        <v>221.2249408455858</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="Y32" t="n">
-        <v>221.2249408455858</v>
+        <v>221.2249408455859</v>
       </c>
     </row>
     <row r="33">
@@ -29855,7 +29855,7 @@
         <v>100.9154559462057</v>
       </c>
       <c r="L33" t="n">
-        <v>88.90283864918112</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -29867,28 +29867,28 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>90.30752936669637</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>110.7916225242057</v>
       </c>
       <c r="R33" t="n">
-        <v>157.1959085268186</v>
+        <v>131.4816003936965</v>
       </c>
       <c r="S33" t="n">
         <v>167.4356349622666</v>
       </c>
       <c r="T33" t="n">
-        <v>221.2249408455858</v>
+        <v>199.2430083373</v>
       </c>
       <c r="U33" t="n">
-        <v>221.2249408455858</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="V33" t="n">
-        <v>221.2249408455858</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="W33" t="n">
-        <v>221.2249408455858</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
@@ -29904,13 +29904,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>221.2249408455858</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>221.2249408455858</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>221.2249408455858</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -29922,7 +29922,7 @@
         <v>167.7992659963099</v>
       </c>
       <c r="H34" t="n">
-        <v>160.5226664330617</v>
+        <v>197.3640955502221</v>
       </c>
       <c r="I34" t="n">
         <v>149.6851312728186</v>
@@ -29931,49 +29931,49 @@
         <v>113.441286735473</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>106.7396511863337</v>
       </c>
       <c r="L34" t="n">
         <v>106.382127875946</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>108.8738430064008</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>98.34817151022006</v>
       </c>
       <c r="O34" t="n">
         <v>111.3587261364775</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>114.5411443216187</v>
       </c>
       <c r="Q34" t="n">
-        <v>135.4516218226006</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="R34" t="n">
-        <v>168.6732614754589</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="S34" t="n">
         <v>220.675556989342</v>
       </c>
       <c r="T34" t="n">
-        <v>221.2249408455858</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="U34" t="n">
-        <v>221.2249408455858</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="V34" t="n">
-        <v>221.2249408455858</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="W34" t="n">
-        <v>221.2249408455858</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="X34" t="n">
-        <v>221.2249408455858</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="Y34" t="n">
-        <v>221.2249408455858</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -29983,76 +29983,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369835</v>
       </c>
       <c r="C35" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369835</v>
       </c>
       <c r="D35" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369835</v>
       </c>
       <c r="E35" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369835</v>
       </c>
       <c r="F35" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369835</v>
       </c>
       <c r="G35" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369835</v>
       </c>
       <c r="H35" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369835</v>
       </c>
       <c r="I35" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369835</v>
       </c>
       <c r="J35" t="n">
-        <v>244.6402526369834</v>
+        <v>232.2096508810738</v>
       </c>
       <c r="K35" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369835</v>
       </c>
       <c r="L35" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369835</v>
       </c>
       <c r="M35" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369835</v>
       </c>
       <c r="N35" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369835</v>
       </c>
       <c r="O35" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369835</v>
       </c>
       <c r="P35" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369835</v>
       </c>
       <c r="Q35" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369835</v>
       </c>
       <c r="R35" t="n">
-        <v>148.6716034064003</v>
+        <v>244.6402526369835</v>
       </c>
       <c r="S35" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369835</v>
       </c>
       <c r="T35" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369835</v>
       </c>
       <c r="U35" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369835</v>
       </c>
       <c r="V35" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369835</v>
       </c>
       <c r="W35" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369835</v>
       </c>
       <c r="X35" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369835</v>
       </c>
       <c r="Y35" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369835</v>
       </c>
     </row>
     <row r="36">
@@ -30092,7 +30092,7 @@
         <v>100.9154559462057</v>
       </c>
       <c r="L36" t="n">
-        <v>88.90283864918112</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>84.19302733439812</v>
@@ -30104,13 +30104,13 @@
         <v>88.18866638734502</v>
       </c>
       <c r="P36" t="n">
-        <v>90.30752936669637</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>131.4816003936965</v>
+        <v>138.6795705232099</v>
       </c>
       <c r="S36" t="n">
         <v>167.4356349622666</v>
@@ -30125,7 +30125,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369835</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
@@ -30174,7 +30174,7 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>184.257149358772</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -30183,7 +30183,7 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>114.5411443216187</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>135.4516218226006</v>
@@ -30192,22 +30192,22 @@
         <v>168.6732614754589</v>
       </c>
       <c r="S37" t="n">
-        <v>244.6402526369834</v>
+        <v>220.675556989342</v>
       </c>
       <c r="T37" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369835</v>
       </c>
       <c r="U37" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369835</v>
       </c>
       <c r="V37" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369835</v>
       </c>
       <c r="W37" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369835</v>
       </c>
       <c r="X37" t="n">
-        <v>244.6402526369834</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -30220,76 +30220,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369835</v>
       </c>
       <c r="C38" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369835</v>
       </c>
       <c r="D38" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369835</v>
       </c>
       <c r="E38" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369835</v>
       </c>
       <c r="F38" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369835</v>
       </c>
       <c r="G38" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369835</v>
       </c>
       <c r="H38" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369835</v>
       </c>
       <c r="I38" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369835</v>
       </c>
       <c r="J38" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369835</v>
       </c>
       <c r="K38" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369835</v>
       </c>
       <c r="L38" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369835</v>
       </c>
       <c r="M38" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369835</v>
       </c>
       <c r="N38" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369835</v>
       </c>
       <c r="O38" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369835</v>
       </c>
       <c r="P38" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369835</v>
       </c>
       <c r="Q38" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369835</v>
       </c>
       <c r="R38" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369835</v>
       </c>
       <c r="S38" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369835</v>
       </c>
       <c r="T38" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369835</v>
       </c>
       <c r="U38" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369835</v>
       </c>
       <c r="V38" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369835</v>
       </c>
       <c r="W38" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369835</v>
       </c>
       <c r="X38" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369835</v>
       </c>
       <c r="Y38" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369835</v>
       </c>
     </row>
     <row r="39">
@@ -30299,7 +30299,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>173.7311537793809</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
         <v>172.7084989883157</v>
@@ -30311,7 +30311,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>152.2671825228973</v>
       </c>
       <c r="G39" t="n">
         <v>137.114842254054</v>
@@ -30323,25 +30323,25 @@
         <v>91.649142996143</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>105.2328625520064</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>100.9154559462057</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>27.13507403173224</v>
       </c>
       <c r="N39" t="n">
-        <v>71.86717946018477</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>39.57321068353217</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -30362,7 +30362,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369835</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
@@ -30408,19 +30408,19 @@
         <v>106.7396511863337</v>
       </c>
       <c r="L40" t="n">
-        <v>106.382127875946</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>108.8738430064008</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>98.34817151022006</v>
+        <v>191.2452799822929</v>
       </c>
       <c r="O40" t="n">
         <v>111.3587261364775</v>
       </c>
       <c r="P40" t="n">
-        <v>189.9244506739904</v>
+        <v>114.5411443216187</v>
       </c>
       <c r="Q40" t="n">
         <v>135.4516218226006</v>
@@ -30432,16 +30432,16 @@
         <v>220.675556989342</v>
       </c>
       <c r="T40" t="n">
-        <v>244.6402526369834</v>
+        <v>227.1264505172819</v>
       </c>
       <c r="U40" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369835</v>
       </c>
       <c r="V40" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369835</v>
       </c>
       <c r="W40" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369835</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -30457,76 +30457,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>244.6402526369833</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="C41" t="n">
-        <v>244.6402526369833</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="D41" t="n">
-        <v>244.6402526369833</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="E41" t="n">
-        <v>244.6402526369833</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="F41" t="n">
-        <v>244.6402526369833</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="G41" t="n">
-        <v>244.6402526369833</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="H41" t="n">
-        <v>244.6402526369833</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="I41" t="n">
-        <v>244.6402526369833</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="J41" t="n">
-        <v>244.6402526369833</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="K41" t="n">
-        <v>244.6402526369833</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="L41" t="n">
-        <v>244.6402526369833</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="M41" t="n">
-        <v>244.6402526369833</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="N41" t="n">
-        <v>244.6402526369833</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="O41" t="n">
-        <v>244.6402526369833</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="P41" t="n">
-        <v>244.6402526369833</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="Q41" t="n">
-        <v>164.8192275339419</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="R41" t="n">
-        <v>244.6402526369833</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="S41" t="n">
-        <v>244.6402526369833</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="T41" t="n">
-        <v>244.6402526369833</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="U41" t="n">
-        <v>244.6402526369833</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="V41" t="n">
-        <v>244.6402526369833</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="W41" t="n">
-        <v>244.6402526369833</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="X41" t="n">
-        <v>244.6402526369833</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="Y41" t="n">
-        <v>244.6402526369833</v>
+        <v>244.6402526369834</v>
       </c>
     </row>
     <row r="42">
@@ -30566,13 +30566,13 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>6.207527591701055</v>
       </c>
       <c r="M42" t="n">
-        <v>84.19302733439812</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>71.86717946018477</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -30590,16 +30590,16 @@
         <v>167.4356349622666</v>
       </c>
       <c r="T42" t="n">
-        <v>199.2430083373</v>
+        <v>206.4409784668135</v>
       </c>
       <c r="U42" t="n">
-        <v>233.1243078085703</v>
+        <v>225.9263376790566</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>244.6402526369833</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
@@ -30639,7 +30639,7 @@
         <v>149.6851312728186</v>
       </c>
       <c r="J43" t="n">
-        <v>113.441286735473</v>
+        <v>206.3383952075461</v>
       </c>
       <c r="K43" t="n">
         <v>106.7396511863337</v>
@@ -30660,7 +30660,7 @@
         <v>114.5411443216187</v>
       </c>
       <c r="Q43" t="n">
-        <v>228.348730294674</v>
+        <v>135.4516218226006</v>
       </c>
       <c r="R43" t="n">
         <v>168.6732614754589</v>
@@ -30672,13 +30672,13 @@
         <v>227.1264505172819</v>
       </c>
       <c r="U43" t="n">
-        <v>244.6402526369833</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="V43" t="n">
-        <v>244.6402526369833</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="W43" t="n">
-        <v>244.6402526369833</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -30694,76 +30694,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>244.6402526369833</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="C44" t="n">
-        <v>244.6402526369833</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="D44" t="n">
-        <v>244.6402526369833</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="E44" t="n">
-        <v>244.6402526369833</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="F44" t="n">
-        <v>244.6402526369833</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="G44" t="n">
-        <v>244.6402526369833</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="H44" t="n">
-        <v>244.6402526369833</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="I44" t="n">
-        <v>199.1037662656034</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="J44" t="n">
-        <v>244.6402526369833</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="K44" t="n">
-        <v>244.6402526369833</v>
+        <v>234.5667272067998</v>
       </c>
       <c r="L44" t="n">
-        <v>244.6402526369833</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="M44" t="n">
-        <v>244.6402526369833</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="N44" t="n">
-        <v>244.6402526369833</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="P44" t="n">
-        <v>244.6402526369833</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="Q44" t="n">
-        <v>244.6402526369833</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="R44" t="n">
-        <v>244.6402526369833</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="S44" t="n">
-        <v>244.6402526369833</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="T44" t="n">
-        <v>244.6402526369833</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="U44" t="n">
-        <v>244.6402526369833</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="V44" t="n">
-        <v>244.6402526369833</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="W44" t="n">
-        <v>244.6402526369833</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="X44" t="n">
-        <v>244.6402526369833</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="Y44" t="n">
-        <v>244.6402526369833</v>
+        <v>244.6402526369834</v>
       </c>
     </row>
     <row r="45">
@@ -30794,7 +30794,7 @@
         <v>110.026926034905</v>
       </c>
       <c r="I45" t="n">
-        <v>91.649142996143</v>
+        <v>98.84711312565652</v>
       </c>
       <c r="J45" t="n">
         <v>105.2328625520064</v>
@@ -30809,10 +30809,10 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>71.86717946018477</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>88.18866638734502</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>90.30752936669637</v>
@@ -30833,10 +30833,10 @@
         <v>225.9263376790566</v>
       </c>
       <c r="V45" t="n">
-        <v>239.9985572789389</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>244.6402526369833</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="X45" t="n">
         <v>205.7729852034775</v>
@@ -30861,7 +30861,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>239.3310711186426</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -30873,28 +30873,28 @@
         <v>160.5226664330617</v>
       </c>
       <c r="I46" t="n">
-        <v>149.6851312728186</v>
+        <v>242.5822397448917</v>
       </c>
       <c r="J46" t="n">
         <v>113.441286735473</v>
       </c>
       <c r="K46" t="n">
-        <v>106.7396511863337</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>106.382127875946</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>108.8738430064008</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>98.34817151022006</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>111.3587261364775</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>114.5411443216187</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
         <v>135.4516218226006</v>
@@ -30909,13 +30909,13 @@
         <v>227.1264505172819</v>
       </c>
       <c r="U46" t="n">
-        <v>244.6402526369833</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="V46" t="n">
-        <v>244.6402526369833</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="W46" t="n">
-        <v>244.6402526369833</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -35404,37 +35404,37 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.9789450517795485</v>
+        <v>20.12057943994258</v>
       </c>
       <c r="J11" t="n">
-        <v>69.34789868787097</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>48.39545783628797</v>
+        <v>48.3954578362878</v>
       </c>
       <c r="L11" t="n">
-        <v>45.79869349898776</v>
+        <v>45.79869349898759</v>
       </c>
       <c r="M11" t="n">
-        <v>58.81950869080163</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>60.96700599631303</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>44.34595275045523</v>
       </c>
       <c r="Q11" t="n">
-        <v>37.96728067972578</v>
+        <v>37.96728067972561</v>
       </c>
       <c r="R11" t="n">
-        <v>25.38106515843402</v>
+        <v>25.38106515843385</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>3.712814243742615</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -35462,7 +35462,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>47.58625317961938</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -35477,13 +35477,13 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>21.85931104948108</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>46.13239468473223</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -35516,7 +35516,7 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>14.87642849218654</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -35531,7 +35531,7 @@
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>8.436741052182185</v>
       </c>
     </row>
     <row r="13">
@@ -35541,34 +35541,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>34.28745664754942</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>46.87261573085871</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>67.68547418291755</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>68.69838880655547</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>46.32017083317663</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>51.98909497962681</v>
+        <v>64.43430555666795</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>65.03332249594715</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -35641,37 +35641,37 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>20.12057943994276</v>
+        <v>20.12057943994258</v>
       </c>
       <c r="J14" t="n">
-        <v>69.34789868787097</v>
+        <v>69.3478986878708</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>48.3954578362878</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>45.79869349898759</v>
       </c>
       <c r="M14" t="n">
-        <v>58.06645595658821</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>60.9670059963132</v>
+        <v>60.96700599631303</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>1.839585301040114</v>
       </c>
       <c r="Q14" t="n">
-        <v>37.96728067972578</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>25.38106515843402</v>
+        <v>25.38106515843385</v>
       </c>
       <c r="S14" t="n">
-        <v>14.83856368501277</v>
+        <v>14.8385636850126</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -35714,7 +35714,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>37.78594305872214</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -35741,7 +35741,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>69.44556422910095</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35753,7 +35753,7 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>14.87642849218671</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -35765,10 +35765,10 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>8.346451626009241</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>8.436741052182356</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -35778,10 +35778,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>34.28745664754925</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>46.87261573085871</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -35796,7 +35796,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>53.59677039642502</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -35808,25 +35808,25 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>72.40356150710429</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>72.40356150710429</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>24.25652120601563</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>23.65060537711033</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>72.40356150710446</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>45.44617535402767</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -35875,19 +35875,19 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>12.74642708286474</v>
+        <v>12.74642708286485</v>
       </c>
       <c r="I17" t="n">
-        <v>72.40356150710429</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>72.40356150710446</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>36.63979614929495</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -35908,16 +35908,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>56.73173799971008</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>72.40356150710429</v>
+        <v>72.40356150710446</v>
       </c>
       <c r="U17" t="n">
-        <v>72.40356150710429</v>
+        <v>72.40356150710446</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>20.0919418504152</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -36112,10 +36112,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>12.74642708286474</v>
+        <v>12.74642708286485</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>36.63979614929494</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -36139,22 +36139,22 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>56.73173799971008</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>72.40356150710429</v>
+        <v>72.40356150710446</v>
       </c>
       <c r="T20" t="n">
-        <v>72.40356150710429</v>
+        <v>72.40356150710446</v>
       </c>
       <c r="U20" t="n">
-        <v>72.40356150710429</v>
+        <v>72.40356150710446</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>20.0919418504152</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -36349,13 +36349,13 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>12.74642708286474</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>72.40356150710429</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>72.40356150710429</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -36364,22 +36364,22 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>72.40356150710446</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>72.40356150710446</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>72.40356150710446</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>69.47816508257498</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>56.73173799971008</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36388,7 +36388,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>72.40356150710429</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -36589,37 +36589,37 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>27.22608345604197</v>
+        <v>27.22608345604194</v>
       </c>
       <c r="J26" t="n">
-        <v>76.45340270397018</v>
+        <v>245.5500178760439</v>
       </c>
       <c r="K26" t="n">
-        <v>55.50096185238719</v>
+        <v>158.421433577966</v>
       </c>
       <c r="L26" t="n">
-        <v>249.3404712199515</v>
+        <v>52.90419751508695</v>
       </c>
       <c r="M26" t="n">
-        <v>304.3894571307288</v>
+        <v>418.3288675406831</v>
       </c>
       <c r="N26" t="n">
-        <v>68.07251001241242</v>
+        <v>68.07251001241239</v>
       </c>
       <c r="O26" t="n">
-        <v>430.5925962394318</v>
+        <v>204.9095381265466</v>
       </c>
       <c r="P26" t="n">
         <v>373.2501649380372</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>36.16283451014375</v>
       </c>
       <c r="R26" t="n">
-        <v>98.20298904751567</v>
+        <v>98.20298904751564</v>
       </c>
       <c r="S26" t="n">
-        <v>21.94406770111199</v>
+        <v>21.94406770111196</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -36662,7 +36662,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>47.69624064140771</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -36695,7 +36695,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>47.6962406414078</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,19 +36750,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>60.68113785102077</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>114.4852896592522</v>
       </c>
       <c r="L28" t="n">
-        <v>114.8428129696399</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>60.32361454063297</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
@@ -36826,37 +36826,37 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>27.22608345604197</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>76.45340270397018</v>
+        <v>76.45340270397016</v>
       </c>
       <c r="K29" t="n">
-        <v>55.50096185238719</v>
+        <v>55.50096185238716</v>
       </c>
       <c r="L29" t="n">
-        <v>296.4411260372812</v>
+        <v>249.3404712199515</v>
       </c>
       <c r="M29" t="n">
-        <v>430.5925962394322</v>
+        <v>65.92501270690082</v>
       </c>
       <c r="N29" t="n">
-        <v>326.6347626961192</v>
+        <v>430.5925962394319</v>
       </c>
       <c r="O29" t="n">
-        <v>63.13748244544654</v>
+        <v>413.2522184942898</v>
       </c>
       <c r="P29" t="n">
-        <v>51.45145676655461</v>
+        <v>270.6322673413173</v>
       </c>
       <c r="Q29" t="n">
-        <v>257.3877753557297</v>
+        <v>45.07278469582497</v>
       </c>
       <c r="R29" t="n">
-        <v>98.20298904751567</v>
+        <v>98.20298904751564</v>
       </c>
       <c r="S29" t="n">
-        <v>21.94406770111199</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -36911,13 +36911,13 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>47.6962406414078</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>47.69624064140771</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -36978,13 +36978,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>53.42567484927601</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>60.70227441252424</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>5.846511384854383</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -36999,10 +36999,10 @@
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>122.8767693353659</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>52.28965817490717</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
@@ -37011,7 +37011,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>52.55167937012706</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -37032,7 +37032,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>2.640287493491144</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -37063,37 +37063,37 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>27.22608345604189</v>
+        <v>27.22608345604197</v>
       </c>
       <c r="J32" t="n">
-        <v>76.4534027039701</v>
+        <v>245.550017876044</v>
       </c>
       <c r="K32" t="n">
-        <v>379.6463744235518</v>
+        <v>158.421433577966</v>
       </c>
       <c r="L32" t="n">
-        <v>353.8859316459293</v>
+        <v>52.90419751508698</v>
       </c>
       <c r="M32" t="n">
-        <v>430.5925962394322</v>
+        <v>65.92501270690084</v>
       </c>
       <c r="N32" t="n">
-        <v>68.07251001241234</v>
+        <v>404.160962127155</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>57.27739358887787</v>
+        <v>373.2501649380372</v>
       </c>
       <c r="Q32" t="n">
-        <v>257.3877753557296</v>
+        <v>257.3877753557297</v>
       </c>
       <c r="R32" t="n">
-        <v>32.48656917453314</v>
+        <v>98.20298904751567</v>
       </c>
       <c r="S32" t="n">
-        <v>21.9440677011119</v>
+        <v>21.94406770111199</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -37163,19 +37163,19 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>47.69624064140771</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>25.71430813312212</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>21.98193250828584</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -37200,13 +37200,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>41.39296066364855</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>53.97811974695801</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>72.60946782737349</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -37218,7 +37218,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>36.84142911716047</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -37233,7 +37233,7 @@
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>4.545591778802166</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
@@ -37245,10 +37245,10 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>85.77331902298532</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>52.55167937012706</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37269,7 +37269,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>2.640287493491059</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -37300,40 +37300,40 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>50.64139524743942</v>
+        <v>50.64139524743953</v>
       </c>
       <c r="J35" t="n">
-        <v>211.6092711893496</v>
+        <v>256.5347279115318</v>
       </c>
       <c r="K35" t="n">
-        <v>78.91627364378463</v>
+        <v>78.91627364378475</v>
       </c>
       <c r="L35" t="n">
-        <v>76.31950930648442</v>
+        <v>76.31950930648453</v>
       </c>
       <c r="M35" t="n">
-        <v>89.34032449829829</v>
+        <v>89.3403244982984</v>
       </c>
       <c r="N35" t="n">
-        <v>91.48782180380987</v>
+        <v>91.48782180380998</v>
       </c>
       <c r="O35" t="n">
-        <v>86.55279423684398</v>
+        <v>86.55279423684409</v>
       </c>
       <c r="P35" t="n">
-        <v>358.1890347323279</v>
+        <v>217.2949287795602</v>
       </c>
       <c r="Q35" t="n">
-        <v>280.8030871471271</v>
+        <v>280.8030871471273</v>
       </c>
       <c r="R35" t="n">
-        <v>25.64965160833001</v>
+        <v>121.6183008389132</v>
       </c>
       <c r="S35" t="n">
-        <v>45.35937949250943</v>
+        <v>45.35937949250955</v>
       </c>
       <c r="T35" t="n">
-        <v>23.41531179139746</v>
+        <v>23.41531179139758</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -37403,10 +37403,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>7.197970129513547</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>7.197970129513433</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37470,13 +37470,13 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>75.38330635237122</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>32.48801345678407</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -37488,10 +37488,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>23.96469564764138</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>17.51380211970148</v>
+        <v>17.51380211970159</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -37503,7 +37503,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>18.93059724794622</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -37537,40 +37537,40 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>50.64139524743942</v>
+        <v>50.64139524743953</v>
       </c>
       <c r="J38" t="n">
-        <v>268.9653296674414</v>
+        <v>268.9653296674415</v>
       </c>
       <c r="K38" t="n">
-        <v>78.91627364378463</v>
+        <v>78.91627364378475</v>
       </c>
       <c r="L38" t="n">
-        <v>76.31950930648442</v>
+        <v>76.31950930648453</v>
       </c>
       <c r="M38" t="n">
-        <v>89.34032449829829</v>
+        <v>89.3403244982984</v>
       </c>
       <c r="N38" t="n">
-        <v>91.48782180380987</v>
+        <v>91.48782180380998</v>
       </c>
       <c r="O38" t="n">
-        <v>358.1890347323281</v>
+        <v>86.55279423684409</v>
       </c>
       <c r="P38" t="n">
-        <v>74.86676855795206</v>
+        <v>270.5807468966339</v>
       </c>
       <c r="Q38" t="n">
-        <v>139.164405117345</v>
+        <v>280.8030871471273</v>
       </c>
       <c r="R38" t="n">
-        <v>121.6183008389131</v>
+        <v>55.90188096593079</v>
       </c>
       <c r="S38" t="n">
-        <v>45.35937949250943</v>
+        <v>45.35937949250955</v>
       </c>
       <c r="T38" t="n">
-        <v>23.41531179139746</v>
+        <v>23.41531179139758</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -37595,7 +37595,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>7.197970129513551</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -37607,7 +37607,7 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>7.197970129513436</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -37710,13 +37710,13 @@
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>92.89710847207283</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>75.38330635237169</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37728,7 +37728,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>17.51380211970148</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -37774,40 +37774,40 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>50.64139524743933</v>
+        <v>50.64139524743945</v>
       </c>
       <c r="J41" t="n">
-        <v>268.9653296674413</v>
+        <v>268.9653296674414</v>
       </c>
       <c r="K41" t="n">
-        <v>78.91627364378455</v>
+        <v>78.91627364378466</v>
       </c>
       <c r="L41" t="n">
-        <v>76.31950930648433</v>
+        <v>76.31950930648445</v>
       </c>
       <c r="M41" t="n">
-        <v>89.3403244982982</v>
+        <v>89.34032449829832</v>
       </c>
       <c r="N41" t="n">
-        <v>91.48782180380978</v>
+        <v>91.48782180380989</v>
       </c>
       <c r="O41" t="n">
-        <v>86.55279423684389</v>
+        <v>86.55279423684401</v>
       </c>
       <c r="P41" t="n">
-        <v>284.6853521266964</v>
+        <v>204.8643270236524</v>
       </c>
       <c r="Q41" t="n">
-        <v>200.9820620440857</v>
+        <v>280.8030871471271</v>
       </c>
       <c r="R41" t="n">
-        <v>121.618300838913</v>
+        <v>121.6183008389131</v>
       </c>
       <c r="S41" t="n">
-        <v>45.35937949250935</v>
+        <v>45.35937949250946</v>
       </c>
       <c r="T41" t="n">
-        <v>23.41531179139738</v>
+        <v>23.41531179139749</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -37886,10 +37886,10 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>7.197970129513522</v>
       </c>
       <c r="U42" t="n">
-        <v>7.197970129513637</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>92.89710847207309</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -37956,7 +37956,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>92.89710847207343</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,40 +38011,40 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>5.104908876059422</v>
+        <v>50.64139524743945</v>
       </c>
       <c r="J44" t="n">
-        <v>182.2248728868854</v>
+        <v>268.9653296674414</v>
       </c>
       <c r="K44" t="n">
-        <v>358.1890347323281</v>
+        <v>68.84274821360101</v>
       </c>
       <c r="L44" t="n">
-        <v>358.1890347323281</v>
+        <v>282.1070130753509</v>
       </c>
       <c r="M44" t="n">
-        <v>89.3403244982982</v>
+        <v>89.34032449829832</v>
       </c>
       <c r="N44" t="n">
-        <v>91.48782180380978</v>
+        <v>91.48782180380989</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>86.55279423684401</v>
       </c>
       <c r="P44" t="n">
-        <v>74.86676855795197</v>
+        <v>74.86676855795208</v>
       </c>
       <c r="Q44" t="n">
-        <v>68.48809648722235</v>
+        <v>280.8030871471271</v>
       </c>
       <c r="R44" t="n">
-        <v>121.618300838913</v>
+        <v>55.9018809659307</v>
       </c>
       <c r="S44" t="n">
-        <v>45.35937949250935</v>
+        <v>45.35937949250946</v>
       </c>
       <c r="T44" t="n">
-        <v>23.41531179139738</v>
+        <v>23.41531179139749</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>7.197970129513522</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -38129,7 +38129,7 @@
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>7.197970129513637</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
@@ -38157,7 +38157,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>92.89710847207343</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -38169,7 +38169,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>92.89710847207309</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
